--- a/Plantillas/Entrega 7/Plantilla Lista de Tareas de la Entrega 7.xlsx
+++ b/Plantillas/Entrega 7/Plantilla Lista de Tareas de la Entrega 7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\OneDrive\Documentos\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FC6B8D-FDCA-46E1-8DD0-1C81F9877CA2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC67DE80-96CE-4C0A-BAA6-8761ED83AAD9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="78">
   <si>
     <t>Columna</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>En este caso de uso el Maestro podrá dar de alta a un alumno a uno de sus grupos que tiene asignados</t>
+  </si>
+  <si>
+    <t>Hecho</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -565,6 +568,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,10 +919,10 @@
   <dimension ref="B1:BB57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="AO44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="BA49" sqref="BA48:BA49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5419,117 +5425,119 @@
       <c r="BA47" s="33"/>
       <c r="BB47" s="2"/>
     </row>
-    <row r="48" spans="2:54" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="40"/>
+    <row r="48" spans="2:54" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="34"/>
       <c r="C48" s="35"/>
-      <c r="D48" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="34" t="s">
+      <c r="D48" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="F48" s="40" t="s">
-        <v>45</v>
+      <c r="F48" s="37" t="s">
+        <v>53</v>
       </c>
       <c r="G48" s="41">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H48" s="37"/>
       <c r="I48" s="37">
         <f t="shared" si="17"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J48" s="37"/>
       <c r="K48" s="37"/>
       <c r="L48" s="37">
-        <f t="shared" si="18"/>
-        <v>15</v>
+        <f>I48-K48</f>
+        <v>1</v>
       </c>
       <c r="M48" s="37"/>
       <c r="N48" s="37"/>
       <c r="O48" s="37">
-        <f t="shared" si="19"/>
-        <v>15</v>
+        <f>L48-N48</f>
+        <v>1</v>
       </c>
       <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
+      <c r="Q48" s="37">
+        <v>1</v>
+      </c>
       <c r="R48" s="37">
         <f t="shared" si="20"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S48" s="37"/>
       <c r="T48" s="37"/>
       <c r="U48" s="37">
         <f t="shared" si="34"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V48" s="37"/>
       <c r="W48" s="37"/>
       <c r="X48" s="37">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="37"/>
       <c r="Z48" s="37"/>
       <c r="AA48" s="37">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="37"/>
       <c r="AC48" s="37"/>
       <c r="AD48" s="37">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE48" s="37"/>
       <c r="AF48" s="37"/>
       <c r="AG48" s="37">
         <f t="shared" si="25"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH48" s="37"/>
       <c r="AI48" s="37"/>
       <c r="AJ48" s="37">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AK48" s="37"/>
       <c r="AL48" s="37"/>
       <c r="AM48" s="37">
         <f t="shared" si="27"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AN48" s="37"/>
       <c r="AO48" s="37"/>
       <c r="AP48" s="37">
         <f t="shared" si="28"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AQ48" s="37"/>
       <c r="AR48" s="37"/>
       <c r="AS48" s="37">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AT48" s="37"/>
       <c r="AU48" s="37"/>
       <c r="AV48" s="37">
         <f t="shared" si="30"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AW48" s="37"/>
       <c r="AX48" s="37"/>
       <c r="AY48" s="37">
         <f t="shared" si="31"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AZ48" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA48" s="33">
         <f>G48-AZ48</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BB48" s="2"/>
     </row>
@@ -5537,7 +5545,7 @@
       <c r="B49" s="40"/>
       <c r="C49" s="35"/>
       <c r="D49" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E49" s="34" t="s">
         <v>42</v>
@@ -5546,96 +5554,96 @@
         <v>45</v>
       </c>
       <c r="G49" s="41">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H49" s="37"/>
       <c r="I49" s="37">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J49" s="37"/>
       <c r="K49" s="37"/>
       <c r="L49" s="37">
-        <f t="shared" si="18"/>
-        <v>4</v>
+        <f>I49-K49</f>
+        <v>15</v>
       </c>
       <c r="M49" s="37"/>
       <c r="N49" s="37"/>
       <c r="O49" s="37">
-        <f t="shared" si="19"/>
-        <v>4</v>
+        <f>L49-N49</f>
+        <v>15</v>
       </c>
       <c r="P49" s="37"/>
       <c r="Q49" s="37"/>
       <c r="R49" s="37">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="S49" s="37"/>
       <c r="T49" s="37"/>
       <c r="U49" s="37">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="V49" s="37"/>
       <c r="W49" s="37"/>
       <c r="X49" s="37">
         <f t="shared" si="35"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Y49" s="37"/>
       <c r="Z49" s="37"/>
       <c r="AA49" s="37">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AB49" s="37"/>
       <c r="AC49" s="37"/>
       <c r="AD49" s="37">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AE49" s="37"/>
       <c r="AF49" s="37"/>
       <c r="AG49" s="37">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AH49" s="37"/>
       <c r="AI49" s="37"/>
       <c r="AJ49" s="37">
         <f t="shared" si="26"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AK49" s="37"/>
       <c r="AL49" s="37"/>
       <c r="AM49" s="37">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AN49" s="37"/>
       <c r="AO49" s="37"/>
       <c r="AP49" s="37">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AQ49" s="37"/>
       <c r="AR49" s="37"/>
       <c r="AS49" s="37">
         <f t="shared" si="29"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AT49" s="37"/>
       <c r="AU49" s="37"/>
       <c r="AV49" s="37">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AW49" s="37"/>
       <c r="AX49" s="37"/>
       <c r="AY49" s="37">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AZ49" s="33">
         <f t="shared" si="32"/>
@@ -5643,581 +5651,587 @@
       </c>
       <c r="BA49" s="33">
         <f>G49-AZ49</f>
+        <v>15</v>
+      </c>
+      <c r="BB49" s="2"/>
+    </row>
+    <row r="50" spans="2:54" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="40"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="41">
         <v>4</v>
       </c>
-      <c r="BB49" s="2"/>
-    </row>
-    <row r="50" spans="2:54" s="39" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="41"/>
       <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
+      <c r="I50" s="37">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
       <c r="J50" s="37"/>
       <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
+      <c r="L50" s="37">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
       <c r="M50" s="37"/>
       <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
+      <c r="O50" s="37">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
       <c r="P50" s="37"/>
       <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
+      <c r="R50" s="37">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
       <c r="S50" s="37"/>
       <c r="T50" s="37"/>
-      <c r="U50" s="37"/>
+      <c r="U50" s="37">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
       <c r="V50" s="37"/>
       <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
+      <c r="X50" s="37">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
       <c r="Y50" s="37"/>
       <c r="Z50" s="37"/>
-      <c r="AA50" s="37"/>
+      <c r="AA50" s="37">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
       <c r="AB50" s="37"/>
       <c r="AC50" s="37"/>
-      <c r="AD50" s="37"/>
+      <c r="AD50" s="37">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
       <c r="AE50" s="37"/>
       <c r="AF50" s="37"/>
-      <c r="AG50" s="37"/>
+      <c r="AG50" s="37">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
       <c r="AH50" s="37"/>
       <c r="AI50" s="37"/>
-      <c r="AJ50" s="37"/>
+      <c r="AJ50" s="37">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
       <c r="AK50" s="37"/>
       <c r="AL50" s="37"/>
-      <c r="AM50" s="37"/>
+      <c r="AM50" s="37">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
       <c r="AN50" s="37"/>
       <c r="AO50" s="37"/>
-      <c r="AP50" s="37"/>
+      <c r="AP50" s="37">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
       <c r="AQ50" s="37"/>
       <c r="AR50" s="37"/>
-      <c r="AS50" s="37"/>
+      <c r="AS50" s="37">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
       <c r="AT50" s="37"/>
       <c r="AU50" s="37"/>
-      <c r="AV50" s="37"/>
+      <c r="AV50" s="37">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
       <c r="AW50" s="37"/>
       <c r="AX50" s="37"/>
-      <c r="AY50" s="37"/>
-      <c r="AZ50" s="33"/>
-      <c r="BA50" s="33"/>
+      <c r="AY50" s="37">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="AZ50" s="33">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BA50" s="33">
+        <f>G50-AZ50</f>
+        <v>4</v>
+      </c>
       <c r="BB50" s="2"/>
     </row>
-    <row r="51" spans="2:54" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="40"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F51" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G51" s="41">
-        <v>5</v>
-      </c>
+    <row r="51" spans="2:54" s="39" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="41"/>
       <c r="H51" s="37"/>
-      <c r="I51" s="37">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
+      <c r="I51" s="37"/>
       <c r="J51" s="37"/>
       <c r="K51" s="37"/>
-      <c r="L51" s="37">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
+      <c r="L51" s="37"/>
       <c r="M51" s="37"/>
       <c r="N51" s="37"/>
-      <c r="O51" s="37">
-        <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
+      <c r="O51" s="37"/>
       <c r="P51" s="37"/>
       <c r="Q51" s="37"/>
-      <c r="R51" s="37">
-        <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
+      <c r="R51" s="37"/>
       <c r="S51" s="37"/>
       <c r="T51" s="37"/>
-      <c r="U51" s="37">
-        <f t="shared" si="34"/>
-        <v>5</v>
-      </c>
+      <c r="U51" s="37"/>
       <c r="V51" s="37"/>
       <c r="W51" s="37"/>
-      <c r="X51" s="37">
-        <f t="shared" si="35"/>
-        <v>5</v>
-      </c>
+      <c r="X51" s="37"/>
       <c r="Y51" s="37"/>
       <c r="Z51" s="37"/>
-      <c r="AA51" s="37">
-        <f t="shared" si="23"/>
-        <v>5</v>
-      </c>
+      <c r="AA51" s="37"/>
       <c r="AB51" s="37"/>
       <c r="AC51" s="37"/>
-      <c r="AD51" s="37">
-        <f t="shared" si="24"/>
-        <v>5</v>
-      </c>
+      <c r="AD51" s="37"/>
       <c r="AE51" s="37"/>
       <c r="AF51" s="37"/>
-      <c r="AG51" s="37">
-        <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
+      <c r="AG51" s="37"/>
       <c r="AH51" s="37"/>
       <c r="AI51" s="37"/>
-      <c r="AJ51" s="37">
-        <f t="shared" si="26"/>
-        <v>5</v>
-      </c>
+      <c r="AJ51" s="37"/>
       <c r="AK51" s="37"/>
       <c r="AL51" s="37"/>
-      <c r="AM51" s="37">
-        <f t="shared" si="27"/>
-        <v>5</v>
-      </c>
+      <c r="AM51" s="37"/>
       <c r="AN51" s="37"/>
       <c r="AO51" s="37"/>
-      <c r="AP51" s="37">
-        <f t="shared" si="28"/>
-        <v>5</v>
-      </c>
+      <c r="AP51" s="37"/>
       <c r="AQ51" s="37"/>
       <c r="AR51" s="37"/>
-      <c r="AS51" s="37">
-        <f t="shared" si="29"/>
-        <v>5</v>
-      </c>
+      <c r="AS51" s="37"/>
       <c r="AT51" s="37"/>
       <c r="AU51" s="37"/>
-      <c r="AV51" s="37">
-        <f t="shared" si="30"/>
-        <v>5</v>
-      </c>
+      <c r="AV51" s="37"/>
       <c r="AW51" s="37"/>
       <c r="AX51" s="37"/>
-      <c r="AY51" s="37">
-        <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="AZ51" s="33">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="BA51" s="33">
-        <f t="shared" ref="BA51:BA56" si="40">G51-AZ51</f>
-        <v>5</v>
-      </c>
+      <c r="AY51" s="37"/>
+      <c r="AZ51" s="33"/>
+      <c r="BA51" s="33"/>
       <c r="BB51" s="2"/>
     </row>
     <row r="52" spans="2:54" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="40"/>
       <c r="C52" s="35"/>
       <c r="D52" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E52" s="34" t="s">
         <v>42</v>
       </c>
       <c r="F52" s="37" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G52" s="41">
-        <v>1</v>
-      </c>
-      <c r="H52" s="37"/>
+        <v>5</v>
+      </c>
+      <c r="H52" s="37">
+        <v>3</v>
+      </c>
       <c r="I52" s="37">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" s="37"/>
       <c r="K52" s="37"/>
       <c r="L52" s="37">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M52" s="37"/>
       <c r="N52" s="37"/>
       <c r="O52" s="37">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P52" s="37"/>
       <c r="Q52" s="37"/>
       <c r="R52" s="37">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S52" s="37"/>
       <c r="T52" s="37"/>
       <c r="U52" s="37">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V52" s="37"/>
       <c r="W52" s="37"/>
       <c r="X52" s="37">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y52" s="37"/>
       <c r="Z52" s="37"/>
       <c r="AA52" s="37">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB52" s="37"/>
       <c r="AC52" s="37"/>
       <c r="AD52" s="37">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE52" s="37"/>
       <c r="AF52" s="37"/>
       <c r="AG52" s="37">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH52" s="37"/>
       <c r="AI52" s="37"/>
       <c r="AJ52" s="37">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK52" s="37"/>
       <c r="AL52" s="37"/>
       <c r="AM52" s="37">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN52" s="37"/>
       <c r="AO52" s="37"/>
       <c r="AP52" s="37">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ52" s="37"/>
       <c r="AR52" s="37"/>
       <c r="AS52" s="37">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT52" s="37"/>
       <c r="AU52" s="37"/>
       <c r="AV52" s="37">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW52" s="37"/>
       <c r="AX52" s="37"/>
       <c r="AY52" s="37">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ52" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA52" s="33">
-        <f t="shared" si="40"/>
-        <v>1</v>
+        <f t="shared" ref="BA52:BA56" si="40">G52-AZ52</f>
+        <v>2</v>
       </c>
       <c r="BB52" s="2"/>
     </row>
-    <row r="53" spans="2:54" s="39" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
+    <row r="53" spans="2:54" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="40"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53" s="41">
+        <v>1</v>
+      </c>
+      <c r="H53" s="37">
+        <v>1</v>
+      </c>
+      <c r="I53" s="37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="J53" s="37"/>
       <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
+      <c r="L53" s="37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="M53" s="37"/>
       <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
+      <c r="O53" s="37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="P53" s="37"/>
       <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
+      <c r="R53" s="37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="S53" s="37"/>
       <c r="T53" s="37"/>
-      <c r="U53" s="37"/>
+      <c r="U53" s="37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
       <c r="V53" s="37"/>
       <c r="W53" s="37"/>
-      <c r="X53" s="37"/>
+      <c r="X53" s="37">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
       <c r="Y53" s="37"/>
       <c r="Z53" s="37"/>
-      <c r="AA53" s="37"/>
+      <c r="AA53" s="37">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
       <c r="AB53" s="37"/>
       <c r="AC53" s="37"/>
-      <c r="AD53" s="37"/>
+      <c r="AD53" s="37">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="AE53" s="37"/>
       <c r="AF53" s="37"/>
-      <c r="AG53" s="37"/>
+      <c r="AG53" s="37">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="AH53" s="37"/>
       <c r="AI53" s="37"/>
-      <c r="AJ53" s="37"/>
+      <c r="AJ53" s="37">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="AK53" s="37"/>
       <c r="AL53" s="37"/>
-      <c r="AM53" s="37"/>
+      <c r="AM53" s="37">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
       <c r="AN53" s="37"/>
       <c r="AO53" s="37"/>
-      <c r="AP53" s="37"/>
+      <c r="AP53" s="37">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
       <c r="AQ53" s="37"/>
       <c r="AR53" s="37"/>
-      <c r="AS53" s="37"/>
+      <c r="AS53" s="37">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
       <c r="AT53" s="37"/>
       <c r="AU53" s="37"/>
-      <c r="AV53" s="37"/>
+      <c r="AV53" s="37">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
       <c r="AW53" s="37"/>
       <c r="AX53" s="37"/>
-      <c r="AY53" s="37"/>
-      <c r="AZ53" s="33"/>
-      <c r="BA53" s="33"/>
+      <c r="AY53" s="37">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AZ53" s="33">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="BA53" s="33">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
       <c r="BB53" s="2"/>
     </row>
     <row r="54" spans="2:54" s="39" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="40"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F54" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="G54" s="41">
-        <v>2</v>
-      </c>
+      <c r="B54" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="41"/>
       <c r="H54" s="37"/>
-      <c r="I54" s="37">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
+      <c r="I54" s="37"/>
       <c r="J54" s="37"/>
       <c r="K54" s="37"/>
-      <c r="L54" s="37">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
+      <c r="L54" s="37"/>
       <c r="M54" s="37"/>
       <c r="N54" s="37"/>
-      <c r="O54" s="37">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
+      <c r="O54" s="37"/>
       <c r="P54" s="37"/>
       <c r="Q54" s="37"/>
-      <c r="R54" s="37">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
+      <c r="R54" s="37"/>
       <c r="S54" s="37"/>
       <c r="T54" s="37"/>
-      <c r="U54" s="37">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
+      <c r="U54" s="37"/>
       <c r="V54" s="37"/>
       <c r="W54" s="37"/>
-      <c r="X54" s="37">
-        <f t="shared" si="35"/>
-        <v>2</v>
-      </c>
+      <c r="X54" s="37"/>
       <c r="Y54" s="37"/>
       <c r="Z54" s="37"/>
-      <c r="AA54" s="37">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
+      <c r="AA54" s="37"/>
       <c r="AB54" s="37"/>
       <c r="AC54" s="37"/>
-      <c r="AD54" s="37">
-        <f t="shared" si="24"/>
-        <v>2</v>
-      </c>
+      <c r="AD54" s="37"/>
       <c r="AE54" s="37"/>
       <c r="AF54" s="37"/>
-      <c r="AG54" s="37">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
+      <c r="AG54" s="37"/>
       <c r="AH54" s="37"/>
       <c r="AI54" s="37"/>
-      <c r="AJ54" s="37">
-        <f t="shared" si="26"/>
-        <v>2</v>
-      </c>
+      <c r="AJ54" s="37"/>
       <c r="AK54" s="37"/>
       <c r="AL54" s="37"/>
-      <c r="AM54" s="37">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
+      <c r="AM54" s="37"/>
       <c r="AN54" s="37"/>
       <c r="AO54" s="37"/>
-      <c r="AP54" s="37">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
+      <c r="AP54" s="37"/>
       <c r="AQ54" s="37"/>
       <c r="AR54" s="37"/>
-      <c r="AS54" s="37">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
+      <c r="AS54" s="37"/>
       <c r="AT54" s="37"/>
       <c r="AU54" s="37"/>
-      <c r="AV54" s="37">
-        <f t="shared" si="30"/>
-        <v>2</v>
-      </c>
+      <c r="AV54" s="37"/>
       <c r="AW54" s="37"/>
       <c r="AX54" s="37"/>
-      <c r="AY54" s="37">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
-      <c r="AZ54" s="33">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="BA54" s="33">
-        <f t="shared" si="40"/>
-        <v>2</v>
-      </c>
+      <c r="AY54" s="37"/>
+      <c r="AZ54" s="33"/>
+      <c r="BA54" s="33"/>
       <c r="BB54" s="2"/>
     </row>
-    <row r="55" spans="2:54" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" s="39" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="40"/>
       <c r="C55" s="35"/>
       <c r="D55" s="34" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E55" s="34" t="s">
         <v>42</v>
       </c>
       <c r="F55" s="37" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G55" s="41">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H55" s="37"/>
       <c r="I55" s="37">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J55" s="37"/>
       <c r="K55" s="37"/>
       <c r="L55" s="37">
         <f t="shared" si="18"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
+      <c r="N55" s="37">
+        <v>1</v>
+      </c>
       <c r="O55" s="37">
         <f t="shared" si="19"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P55" s="37"/>
       <c r="Q55" s="37"/>
       <c r="R55" s="37">
         <f t="shared" si="20"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S55" s="37"/>
       <c r="T55" s="37"/>
       <c r="U55" s="37">
         <f t="shared" si="34"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V55" s="37"/>
       <c r="W55" s="37"/>
       <c r="X55" s="37">
         <f t="shared" si="35"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Y55" s="37"/>
       <c r="Z55" s="37"/>
       <c r="AA55" s="37">
         <f t="shared" si="23"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AB55" s="37"/>
       <c r="AC55" s="37"/>
       <c r="AD55" s="37">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AE55" s="37"/>
       <c r="AF55" s="37"/>
       <c r="AG55" s="37">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AH55" s="37"/>
       <c r="AI55" s="37"/>
       <c r="AJ55" s="37">
         <f t="shared" si="26"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AK55" s="37"/>
       <c r="AL55" s="37"/>
       <c r="AM55" s="37">
         <f t="shared" si="27"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AN55" s="37"/>
       <c r="AO55" s="37"/>
       <c r="AP55" s="37">
         <f t="shared" si="28"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AQ55" s="37"/>
       <c r="AR55" s="37"/>
       <c r="AS55" s="37">
         <f t="shared" si="29"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AT55" s="37"/>
       <c r="AU55" s="37"/>
       <c r="AV55" s="37">
         <f t="shared" si="30"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AW55" s="37"/>
       <c r="AX55" s="37"/>
       <c r="AY55" s="37">
         <f t="shared" si="31"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AZ55" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA55" s="33">
         <f t="shared" si="40"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BB55" s="2"/>
     </row>
@@ -6225,113 +6239,115 @@
       <c r="B56" s="40"/>
       <c r="C56" s="35"/>
       <c r="D56" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E56" s="34" t="s">
         <v>42</v>
       </c>
       <c r="F56" s="37" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G56" s="41">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H56" s="37"/>
       <c r="I56" s="37">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J56" s="37"/>
       <c r="K56" s="37"/>
       <c r="L56" s="37">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
+      <c r="N56" s="37">
+        <v>4</v>
+      </c>
       <c r="O56" s="37">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P56" s="37"/>
       <c r="Q56" s="37"/>
       <c r="R56" s="37">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S56" s="37"/>
       <c r="T56" s="37"/>
       <c r="U56" s="37">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V56" s="37"/>
       <c r="W56" s="37"/>
       <c r="X56" s="37">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Y56" s="37"/>
       <c r="Z56" s="37"/>
       <c r="AA56" s="37">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB56" s="37"/>
       <c r="AC56" s="37"/>
       <c r="AD56" s="37">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE56" s="37"/>
       <c r="AF56" s="37"/>
       <c r="AG56" s="37">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AH56" s="37"/>
       <c r="AI56" s="37"/>
       <c r="AJ56" s="37">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AK56" s="37"/>
       <c r="AL56" s="37"/>
       <c r="AM56" s="37">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AN56" s="37"/>
       <c r="AO56" s="37"/>
       <c r="AP56" s="37">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AQ56" s="37"/>
       <c r="AR56" s="37"/>
       <c r="AS56" s="37">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AT56" s="37"/>
       <c r="AU56" s="37"/>
       <c r="AV56" s="37">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW56" s="37"/>
       <c r="AX56" s="37"/>
       <c r="AY56" s="37">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AZ56" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA56" s="33">
         <f t="shared" si="40"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB56" s="2"/>
     </row>

--- a/Plantillas/Entrega 7/Plantilla Lista de Tareas de la Entrega 7.xlsx
+++ b/Plantillas/Entrega 7/Plantilla Lista de Tareas de la Entrega 7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\OneDrive\Documentos\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC67DE80-96CE-4C0A-BAA6-8761ED83AAD9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6873F6-DE1E-437B-B502-8F29E78590A1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="79">
   <si>
     <t>Columna</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>Hecho</t>
+  </si>
+  <si>
+    <t>Descartado</t>
   </si>
 </sst>
 </file>
@@ -563,14 +566,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,10 +922,10 @@
   <dimension ref="B1:BB57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="AO44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BA49" sqref="BA48:BA49"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,84 +1007,84 @@
       <c r="BA3" s="2"/>
     </row>
     <row r="4" spans="2:54" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="48"/>
+      <c r="H4" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="49"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="47" t="s">
+      <c r="K4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="48"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="47" t="s">
+      <c r="N4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="48"/>
+      <c r="O4" s="49"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="47" t="s">
+      <c r="Q4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="48"/>
+      <c r="R4" s="49"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="47" t="s">
+      <c r="T4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="48"/>
+      <c r="U4" s="49"/>
       <c r="V4" s="8"/>
-      <c r="W4" s="47" t="s">
+      <c r="W4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="48"/>
+      <c r="X4" s="49"/>
       <c r="Y4" s="8"/>
-      <c r="Z4" s="47" t="s">
+      <c r="Z4" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="48"/>
+      <c r="AA4" s="49"/>
       <c r="AB4" s="8"/>
-      <c r="AC4" s="47" t="s">
+      <c r="AC4" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="48"/>
+      <c r="AD4" s="49"/>
       <c r="AE4" s="8"/>
-      <c r="AF4" s="47" t="s">
+      <c r="AF4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="AG4" s="48"/>
+      <c r="AG4" s="49"/>
       <c r="AH4" s="8"/>
-      <c r="AI4" s="47" t="s">
+      <c r="AI4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="48"/>
+      <c r="AJ4" s="49"/>
       <c r="AK4" s="8"/>
-      <c r="AL4" s="47" t="s">
+      <c r="AL4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="AM4" s="48"/>
+      <c r="AM4" s="49"/>
       <c r="AN4" s="8"/>
-      <c r="AO4" s="47" t="s">
+      <c r="AO4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="AP4" s="48"/>
+      <c r="AP4" s="49"/>
       <c r="AQ4" s="8"/>
-      <c r="AR4" s="47" t="s">
+      <c r="AR4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="AS4" s="48"/>
+      <c r="AS4" s="49"/>
       <c r="AT4" s="8"/>
-      <c r="AU4" s="47" t="s">
+      <c r="AU4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="AV4" s="48"/>
+      <c r="AV4" s="49"/>
       <c r="AW4" s="8"/>
-      <c r="AX4" s="47" t="s">
+      <c r="AX4" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="AY4" s="48"/>
-      <c r="AZ4" s="47" t="s">
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="BA4" s="48"/>
+      <c r="BA4" s="49"/>
     </row>
     <row r="5" spans="2:54" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -1282,7 +1285,7 @@
         <v>41</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G7" s="24">
         <v>1</v>
@@ -1299,90 +1302,92 @@
         <v>1</v>
       </c>
       <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
+      <c r="N7" s="20">
+        <v>0.5</v>
+      </c>
       <c r="O7" s="20">
         <f t="shared" ref="O7:O9" si="2">L7-N7</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P7" s="20"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="20">
         <f t="shared" ref="R7:R9" si="3">O7-Q7</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20">
         <f t="shared" ref="U7:U9" si="4">R7-T7</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
       <c r="X7" s="20">
         <f t="shared" ref="X7:X9" si="5">U7-W7</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20">
         <f t="shared" ref="AA7:AA9" si="6">X7-Z7</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB7" s="20"/>
       <c r="AC7" s="20"/>
       <c r="AD7" s="20">
         <f t="shared" ref="AD7:AD9" si="7">AA7-AC7</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE7" s="20"/>
       <c r="AF7" s="20"/>
       <c r="AG7" s="20">
         <f t="shared" ref="AG7:AG9" si="8">AD7-AF7</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH7" s="20"/>
       <c r="AI7" s="20"/>
       <c r="AJ7" s="20">
         <f t="shared" ref="AJ7:AJ9" si="9">AG7-AI7</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AK7" s="20"/>
       <c r="AL7" s="20"/>
       <c r="AM7" s="20">
         <f t="shared" ref="AM7:AM9" si="10">AJ7-AL7</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AN7" s="20"/>
       <c r="AO7" s="20"/>
       <c r="AP7" s="20">
         <f t="shared" ref="AP7:AP9" si="11">AM7-AO7</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ7" s="20"/>
       <c r="AR7" s="20"/>
       <c r="AS7" s="20">
         <f t="shared" ref="AS7:AS9" si="12">AP7-AR7</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT7" s="20"/>
       <c r="AU7" s="20"/>
       <c r="AV7" s="20">
         <f t="shared" ref="AV7:AV9" si="13">AS7-AU7</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AW7" s="20"/>
       <c r="AX7" s="20"/>
       <c r="AY7" s="20">
         <f t="shared" ref="AY7:AY9" si="14">AV7-AX7</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AZ7" s="33">
         <f t="shared" ref="AZ7:AZ9" si="15">H7+K7+N7+Q7+T7+W7+Z7+AC7+AF7+AI7+AL7+AO7+AR7+AU7+AX7</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BA7" s="33">
         <f t="shared" ref="BA7:BA9" si="16">G7-AZ7</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BB7" s="2"/>
     </row>
@@ -1396,7 +1401,7 @@
         <v>41</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G8" s="24">
         <v>1</v>
@@ -1413,90 +1418,92 @@
         <v>1</v>
       </c>
       <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
+      <c r="N8" s="20">
+        <v>0.5</v>
+      </c>
       <c r="O8" s="20">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P8" s="20"/>
       <c r="Q8" s="20"/>
       <c r="R8" s="20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V8" s="20"/>
       <c r="W8" s="20"/>
       <c r="X8" s="20">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB8" s="20"/>
       <c r="AC8" s="20"/>
       <c r="AD8" s="20">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE8" s="20"/>
       <c r="AF8" s="20"/>
       <c r="AG8" s="20">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH8" s="20"/>
       <c r="AI8" s="20"/>
       <c r="AJ8" s="20">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AK8" s="20"/>
       <c r="AL8" s="20"/>
       <c r="AM8" s="20">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AN8" s="20"/>
       <c r="AO8" s="20"/>
       <c r="AP8" s="20">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ8" s="20"/>
       <c r="AR8" s="20"/>
       <c r="AS8" s="20">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT8" s="20"/>
       <c r="AU8" s="20"/>
       <c r="AV8" s="20">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AW8" s="20"/>
       <c r="AX8" s="20"/>
       <c r="AY8" s="20">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AZ8" s="33">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BA8" s="33">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BB8" s="2"/>
     </row>
@@ -1794,7 +1801,7 @@
         <v>44</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>45</v>
@@ -1814,90 +1821,92 @@
         <v>1</v>
       </c>
       <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
+      <c r="N12" s="20">
+        <v>1</v>
+      </c>
       <c r="O12" s="20">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="20">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20">
         <f t="shared" ref="U12:U56" si="34">R12-T12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20">
         <f t="shared" ref="X12:X56" si="35">U12-W12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="20"/>
       <c r="AC12" s="20"/>
       <c r="AD12" s="20">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="20"/>
       <c r="AF12" s="20"/>
       <c r="AG12" s="20">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="20"/>
       <c r="AI12" s="20"/>
       <c r="AJ12" s="20">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="20"/>
       <c r="AL12" s="20"/>
       <c r="AM12" s="20">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="20"/>
       <c r="AO12" s="20"/>
       <c r="AP12" s="20">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="20"/>
       <c r="AR12" s="20"/>
       <c r="AS12" s="20">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="20"/>
       <c r="AU12" s="20"/>
       <c r="AV12" s="20">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW12" s="20"/>
       <c r="AX12" s="20"/>
       <c r="AY12" s="20">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="33">
         <f>G12-AZ12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="2"/>
     </row>
@@ -1908,7 +1917,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>45</v>
@@ -1928,90 +1937,92 @@
         <v>1</v>
       </c>
       <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
+      <c r="N13" s="20">
+        <v>1</v>
+      </c>
       <c r="O13" s="20">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
       <c r="X13" s="20">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="20"/>
       <c r="AC13" s="20"/>
       <c r="AD13" s="20">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="20"/>
       <c r="AF13" s="20"/>
       <c r="AG13" s="20">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="20"/>
       <c r="AI13" s="20"/>
       <c r="AJ13" s="20">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="20"/>
       <c r="AL13" s="20"/>
       <c r="AM13" s="20">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="20"/>
       <c r="AO13" s="20"/>
       <c r="AP13" s="20">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="20"/>
       <c r="AR13" s="20"/>
       <c r="AS13" s="20">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="20"/>
       <c r="AU13" s="20"/>
       <c r="AV13" s="20">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="20"/>
       <c r="AX13" s="20"/>
       <c r="AY13" s="20">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="33">
         <f>G13-AZ13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="2"/>
     </row>
@@ -2423,7 +2434,7 @@
         <v>44</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>53</v>
@@ -2443,90 +2454,92 @@
         <v>1</v>
       </c>
       <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
+      <c r="N18" s="20">
+        <v>1</v>
+      </c>
       <c r="O18" s="20">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="20">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
       <c r="X18" s="20">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="20"/>
       <c r="AC18" s="20"/>
       <c r="AD18" s="20">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="20"/>
       <c r="AF18" s="20"/>
       <c r="AG18" s="20">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="20"/>
       <c r="AI18" s="20"/>
       <c r="AJ18" s="20">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="20"/>
       <c r="AL18" s="20"/>
       <c r="AM18" s="20">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN18" s="20"/>
       <c r="AO18" s="20"/>
       <c r="AP18" s="20">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="20"/>
       <c r="AR18" s="20"/>
       <c r="AS18" s="20">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="20"/>
       <c r="AU18" s="20"/>
       <c r="AV18" s="20">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="20"/>
       <c r="AX18" s="20"/>
       <c r="AY18" s="20">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="33">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="2"/>
     </row>
@@ -2537,7 +2550,7 @@
         <v>43</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>53</v>
@@ -2557,90 +2570,92 @@
         <v>1</v>
       </c>
       <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
+      <c r="N19" s="20">
+        <v>1</v>
+      </c>
       <c r="O19" s="20">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="20"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="20">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="20"/>
       <c r="W19" s="20"/>
       <c r="X19" s="20">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="20"/>
       <c r="AC19" s="20"/>
       <c r="AD19" s="20">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="20"/>
       <c r="AF19" s="20"/>
       <c r="AG19" s="20">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="20"/>
       <c r="AI19" s="20"/>
       <c r="AJ19" s="20">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19" s="20"/>
       <c r="AL19" s="20"/>
       <c r="AM19" s="20">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN19" s="20"/>
       <c r="AO19" s="20"/>
       <c r="AP19" s="20">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="20"/>
       <c r="AR19" s="20"/>
       <c r="AS19" s="20">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="20"/>
       <c r="AU19" s="20"/>
       <c r="AV19" s="20">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW19" s="20"/>
       <c r="AX19" s="20"/>
       <c r="AY19" s="20">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="33">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="2"/>
     </row>
@@ -3055,7 +3070,7 @@
         <v>41</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="G24" s="24">
         <v>1</v>
@@ -3169,7 +3184,7 @@
         <v>41</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="G25" s="24">
         <v>1</v>
@@ -3283,7 +3298,7 @@
         <v>41</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="G26" s="24">
         <v>1</v>
@@ -3397,7 +3412,7 @@
         <v>41</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="G27" s="24">
         <v>5</v>
@@ -3511,7 +3526,7 @@
         <v>41</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="G28" s="24">
         <v>1</v>
@@ -5428,10 +5443,10 @@
     <row r="48" spans="2:54" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="34"/>
       <c r="C48" s="35"/>
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="E48" s="49" t="s">
+      <c r="E48" s="47" t="s">
         <v>42</v>
       </c>
       <c r="F48" s="37" t="s">
@@ -6407,11 +6422,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -6423,6 +6433,11 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="50" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>

--- a/Plantillas/Entrega 7/Plantilla Lista de Tareas de la Entrega 7.xlsx
+++ b/Plantillas/Entrega 7/Plantilla Lista de Tareas de la Entrega 7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6873F6-DE1E-437B-B502-8F29E78590A1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDD36FB-A627-4F3F-8C7D-AF7050BD30F7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -922,10 +922,10 @@
   <dimension ref="B1:BB57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,7 +1804,7 @@
         <v>77</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G12" s="24">
         <v>1</v>
@@ -1821,15 +1821,15 @@
         <v>1</v>
       </c>
       <c r="M12" s="20"/>
-      <c r="N12" s="20">
-        <v>1</v>
-      </c>
+      <c r="N12" s="20"/>
       <c r="O12" s="20">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
+      <c r="Q12" s="20">
+        <v>1</v>
+      </c>
       <c r="R12" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>77</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G13" s="24">
         <v>1</v>
@@ -1937,15 +1937,15 @@
         <v>1</v>
       </c>
       <c r="M13" s="20"/>
-      <c r="N13" s="20">
-        <v>1</v>
-      </c>
+      <c r="N13" s="20"/>
       <c r="O13" s="20">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
+      <c r="Q13" s="20">
+        <v>1</v>
+      </c>
       <c r="R13" s="20">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>77</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G18" s="24">
         <v>1</v>
@@ -2454,92 +2454,92 @@
         <v>1</v>
       </c>
       <c r="M18" s="20"/>
-      <c r="N18" s="20">
-        <v>1</v>
-      </c>
+      <c r="N18" s="20"/>
       <c r="O18" s="20">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
+      <c r="Q18" s="20">
+        <v>0.5</v>
+      </c>
       <c r="R18" s="20">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
       <c r="X18" s="20">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB18" s="20"/>
       <c r="AC18" s="20"/>
       <c r="AD18" s="20">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE18" s="20"/>
       <c r="AF18" s="20"/>
       <c r="AG18" s="20">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH18" s="20"/>
       <c r="AI18" s="20"/>
       <c r="AJ18" s="20">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK18" s="20"/>
       <c r="AL18" s="20"/>
       <c r="AM18" s="20">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AN18" s="20"/>
       <c r="AO18" s="20"/>
       <c r="AP18" s="20">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ18" s="20"/>
       <c r="AR18" s="20"/>
       <c r="AS18" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT18" s="20"/>
       <c r="AU18" s="20"/>
       <c r="AV18" s="20">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AW18" s="20"/>
       <c r="AX18" s="20"/>
       <c r="AY18" s="20">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AZ18" s="33">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BA18" s="33">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BB18" s="2"/>
     </row>
@@ -2553,7 +2553,7 @@
         <v>77</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G19" s="24">
         <v>1</v>
@@ -2570,92 +2570,92 @@
         <v>1</v>
       </c>
       <c r="M19" s="20"/>
-      <c r="N19" s="20">
-        <v>1</v>
-      </c>
+      <c r="N19" s="20"/>
       <c r="O19" s="20">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
+      <c r="Q19" s="20">
+        <v>0.5</v>
+      </c>
       <c r="R19" s="20">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V19" s="20"/>
       <c r="W19" s="20"/>
       <c r="X19" s="20">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB19" s="20"/>
       <c r="AC19" s="20"/>
       <c r="AD19" s="20">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AE19" s="20"/>
       <c r="AF19" s="20"/>
       <c r="AG19" s="20">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AH19" s="20"/>
       <c r="AI19" s="20"/>
       <c r="AJ19" s="20">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK19" s="20"/>
       <c r="AL19" s="20"/>
       <c r="AM19" s="20">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AN19" s="20"/>
       <c r="AO19" s="20"/>
       <c r="AP19" s="20">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ19" s="20"/>
       <c r="AR19" s="20"/>
       <c r="AS19" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT19" s="20"/>
       <c r="AU19" s="20"/>
       <c r="AV19" s="20">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AW19" s="20"/>
       <c r="AX19" s="20"/>
       <c r="AY19" s="20">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AZ19" s="33">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BA19" s="33">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BB19" s="2"/>
     </row>
@@ -6422,6 +6422,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -6433,11 +6438,6 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="50" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>

--- a/Plantillas/Entrega 7/Plantilla Lista de Tareas de la Entrega 7.xlsx
+++ b/Plantillas/Entrega 7/Plantilla Lista de Tareas de la Entrega 7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDD36FB-A627-4F3F-8C7D-AF7050BD30F7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6554CE28-DCF1-4B48-8898-EF13132CC349}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -922,10 +922,10 @@
   <dimension ref="B1:BB57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,7 +2036,7 @@
         <v>41</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G14" s="24">
         <v>1</v>
@@ -2065,78 +2065,80 @@
         <v>1</v>
       </c>
       <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
+      <c r="T14" s="20">
+        <v>2</v>
+      </c>
       <c r="U14" s="20">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
       <c r="X14" s="20">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB14" s="20"/>
       <c r="AC14" s="20"/>
       <c r="AD14" s="20">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE14" s="20"/>
       <c r="AF14" s="20"/>
       <c r="AG14" s="20">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH14" s="20"/>
       <c r="AI14" s="20"/>
       <c r="AJ14" s="20">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AK14" s="20"/>
       <c r="AL14" s="20"/>
       <c r="AM14" s="20">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AN14" s="20"/>
       <c r="AO14" s="20"/>
       <c r="AP14" s="20">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AQ14" s="20"/>
       <c r="AR14" s="20"/>
       <c r="AS14" s="20">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AT14" s="20"/>
       <c r="AU14" s="20"/>
       <c r="AV14" s="20">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AW14" s="20"/>
       <c r="AX14" s="20"/>
       <c r="AY14" s="20">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AZ14" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA14" s="33">
         <f>G14-AZ14</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BB14" s="2"/>
     </row>
@@ -2669,7 +2671,7 @@
         <v>41</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G20" s="24">
         <v>1</v>
@@ -2698,78 +2700,80 @@
         <v>1</v>
       </c>
       <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
+      <c r="T20" s="20">
+        <v>1</v>
+      </c>
       <c r="U20" s="20">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="20"/>
       <c r="W20" s="20"/>
       <c r="X20" s="20">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="20"/>
       <c r="AC20" s="20"/>
       <c r="AD20" s="20">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="20"/>
       <c r="AF20" s="20"/>
       <c r="AG20" s="20">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="20"/>
       <c r="AI20" s="20"/>
       <c r="AJ20" s="20">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="20"/>
       <c r="AL20" s="20"/>
       <c r="AM20" s="20">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN20" s="20"/>
       <c r="AO20" s="20"/>
       <c r="AP20" s="20">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="20"/>
       <c r="AR20" s="20"/>
       <c r="AS20" s="20">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="20"/>
       <c r="AU20" s="20"/>
       <c r="AV20" s="20">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW20" s="20"/>
       <c r="AX20" s="20"/>
       <c r="AY20" s="20">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="33">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="2"/>
     </row>
@@ -6422,11 +6426,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -6438,6 +6437,11 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="50" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>

--- a/Plantillas/Entrega 7/Plantilla Lista de Tareas de la Entrega 7.xlsx
+++ b/Plantillas/Entrega 7/Plantilla Lista de Tareas de la Entrega 7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6554CE28-DCF1-4B48-8898-EF13132CC349}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19B880D-4A04-46FB-83A7-F04DA8CC2286}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -925,7 +925,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2152,7 +2152,7 @@
         <v>41</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G15" s="24">
         <v>5</v>
@@ -2187,72 +2187,74 @@
         <v>5</v>
       </c>
       <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
+      <c r="W15" s="20">
+        <v>2.5</v>
+      </c>
       <c r="X15" s="20">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="AB15" s="20"/>
       <c r="AC15" s="20"/>
       <c r="AD15" s="20">
         <f t="shared" si="24"/>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="AE15" s="20"/>
       <c r="AF15" s="20"/>
       <c r="AG15" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="AH15" s="20"/>
       <c r="AI15" s="20"/>
       <c r="AJ15" s="20">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="AK15" s="20"/>
       <c r="AL15" s="20"/>
       <c r="AM15" s="20">
         <f t="shared" si="27"/>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="AN15" s="20"/>
       <c r="AO15" s="20"/>
       <c r="AP15" s="20">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15" s="20"/>
       <c r="AR15" s="20"/>
       <c r="AS15" s="20">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="AT15" s="20"/>
       <c r="AU15" s="20"/>
       <c r="AV15" s="20">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="AW15" s="20"/>
       <c r="AX15" s="20"/>
       <c r="AY15" s="20">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="AZ15" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BA15" s="33">
         <f t="shared" ref="BA15:BA28" si="36">G15-AZ15</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="BB15" s="2"/>
     </row>
@@ -6426,6 +6428,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -6437,11 +6444,6 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="50" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>

--- a/Plantillas/Entrega 7/Plantilla Lista de Tareas de la Entrega 7.xlsx
+++ b/Plantillas/Entrega 7/Plantilla Lista de Tareas de la Entrega 7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19B880D-4A04-46FB-83A7-F04DA8CC2286}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E8849C-9E82-40FB-B39F-A9785F32B751}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -925,7 +925,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,7 +2268,7 @@
         <v>41</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G16" s="24">
         <v>1</v>
@@ -2309,66 +2309,68 @@
         <v>1</v>
       </c>
       <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
+      <c r="Z16" s="20">
+        <v>1.5</v>
+      </c>
       <c r="AA16" s="20">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB16" s="20"/>
       <c r="AC16" s="20"/>
       <c r="AD16" s="20">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AE16" s="20"/>
       <c r="AF16" s="20"/>
       <c r="AG16" s="20">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AH16" s="20"/>
       <c r="AI16" s="20"/>
       <c r="AJ16" s="20">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AK16" s="20"/>
       <c r="AL16" s="20"/>
       <c r="AM16" s="20">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AN16" s="20"/>
       <c r="AO16" s="20"/>
       <c r="AP16" s="20">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AQ16" s="20"/>
       <c r="AR16" s="20"/>
       <c r="AS16" s="20">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AT16" s="20"/>
       <c r="AU16" s="20"/>
       <c r="AV16" s="20">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AW16" s="20"/>
       <c r="AX16" s="20"/>
       <c r="AY16" s="20">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AZ16" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BA16" s="33">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="BB16" s="2"/>
     </row>
@@ -2789,7 +2791,7 @@
         <v>41</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G21" s="24">
         <v>5</v>
@@ -2830,66 +2832,68 @@
         <v>5</v>
       </c>
       <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
+      <c r="Z21" s="20">
+        <v>1</v>
+      </c>
       <c r="AA21" s="20">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB21" s="20"/>
       <c r="AC21" s="20"/>
       <c r="AD21" s="20">
         <f t="shared" si="24"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE21" s="20"/>
       <c r="AF21" s="20"/>
       <c r="AG21" s="20">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH21" s="20"/>
       <c r="AI21" s="20"/>
       <c r="AJ21" s="20">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK21" s="20"/>
       <c r="AL21" s="20"/>
       <c r="AM21" s="20">
         <f t="shared" si="27"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN21" s="20"/>
       <c r="AO21" s="20"/>
       <c r="AP21" s="20">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ21" s="20"/>
       <c r="AR21" s="20"/>
       <c r="AS21" s="20">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT21" s="20"/>
       <c r="AU21" s="20"/>
       <c r="AV21" s="20">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW21" s="20"/>
       <c r="AX21" s="20"/>
       <c r="AY21" s="20">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ21" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA21" s="33">
         <f t="shared" si="36"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB21" s="2"/>
     </row>
@@ -2903,7 +2907,7 @@
         <v>41</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G22" s="24">
         <v>1</v>
@@ -2944,66 +2948,68 @@
         <v>1</v>
       </c>
       <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
+      <c r="Z22" s="20">
+        <v>0.5</v>
+      </c>
       <c r="AA22" s="20">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB22" s="20"/>
       <c r="AC22" s="20"/>
       <c r="AD22" s="20">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AE22" s="20"/>
       <c r="AF22" s="20"/>
       <c r="AG22" s="20">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH22" s="20"/>
       <c r="AI22" s="20"/>
       <c r="AJ22" s="20">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AK22" s="20"/>
       <c r="AL22" s="20"/>
       <c r="AM22" s="20">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AN22" s="20"/>
       <c r="AO22" s="20"/>
       <c r="AP22" s="20">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ22" s="20"/>
       <c r="AR22" s="20"/>
       <c r="AS22" s="20">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT22" s="20"/>
       <c r="AU22" s="20"/>
       <c r="AV22" s="20">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AW22" s="20"/>
       <c r="AX22" s="20"/>
       <c r="AY22" s="20">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AZ22" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BA22" s="33">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="BB22" s="2"/>
     </row>

--- a/Plantillas/Entrega 7/Plantilla Lista de Tareas de la Entrega 7.xlsx
+++ b/Plantillas/Entrega 7/Plantilla Lista de Tareas de la Entrega 7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E8849C-9E82-40FB-B39F-A9785F32B751}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C626E12-3A9C-4940-B667-F43A8B1168C2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -568,6 +568,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -925,7 +928,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,84 +1010,84 @@
       <c r="BA3" s="2"/>
     </row>
     <row r="4" spans="2:54" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="49"/>
+      <c r="H4" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="50"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="49"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="48" t="s">
+      <c r="N4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="49"/>
+      <c r="O4" s="50"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="49"/>
+      <c r="R4" s="50"/>
       <c r="S4" s="8"/>
-      <c r="T4" s="48" t="s">
+      <c r="T4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="49"/>
+      <c r="U4" s="50"/>
       <c r="V4" s="8"/>
-      <c r="W4" s="48" t="s">
+      <c r="W4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="49"/>
+      <c r="X4" s="50"/>
       <c r="Y4" s="8"/>
-      <c r="Z4" s="48" t="s">
+      <c r="Z4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="49"/>
+      <c r="AA4" s="50"/>
       <c r="AB4" s="8"/>
-      <c r="AC4" s="48" t="s">
+      <c r="AC4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="49"/>
+      <c r="AD4" s="50"/>
       <c r="AE4" s="8"/>
-      <c r="AF4" s="48" t="s">
+      <c r="AF4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="AG4" s="49"/>
+      <c r="AG4" s="50"/>
       <c r="AH4" s="8"/>
-      <c r="AI4" s="48" t="s">
+      <c r="AI4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="49"/>
+      <c r="AJ4" s="50"/>
       <c r="AK4" s="8"/>
-      <c r="AL4" s="48" t="s">
+      <c r="AL4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="AM4" s="49"/>
+      <c r="AM4" s="50"/>
       <c r="AN4" s="8"/>
-      <c r="AO4" s="48" t="s">
+      <c r="AO4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="AP4" s="49"/>
+      <c r="AP4" s="50"/>
       <c r="AQ4" s="8"/>
-      <c r="AR4" s="48" t="s">
+      <c r="AR4" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AS4" s="49"/>
+      <c r="AS4" s="50"/>
       <c r="AT4" s="8"/>
-      <c r="AU4" s="48" t="s">
+      <c r="AU4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AV4" s="49"/>
+      <c r="AV4" s="50"/>
       <c r="AW4" s="8"/>
-      <c r="AX4" s="48" t="s">
+      <c r="AX4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="AY4" s="49"/>
-      <c r="AZ4" s="48" t="s">
+      <c r="AY4" s="50"/>
+      <c r="AZ4" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="BA4" s="49"/>
+      <c r="BA4" s="50"/>
     </row>
     <row r="5" spans="2:54" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
@@ -1517,7 +1520,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G9" s="24">
         <v>5</v>
@@ -1564,60 +1567,62 @@
         <v>5</v>
       </c>
       <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
+      <c r="AC9" s="20">
+        <v>3</v>
+      </c>
       <c r="AD9" s="20">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
       <c r="AG9" s="20">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AH9" s="20"/>
       <c r="AI9" s="20"/>
       <c r="AJ9" s="20">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AK9" s="20"/>
       <c r="AL9" s="20"/>
       <c r="AM9" s="20">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AN9" s="20"/>
       <c r="AO9" s="20"/>
       <c r="AP9" s="20">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AQ9" s="20"/>
       <c r="AR9" s="20"/>
       <c r="AS9" s="20">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AT9" s="20"/>
       <c r="AU9" s="20"/>
       <c r="AV9" s="20">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW9" s="20"/>
       <c r="AX9" s="20"/>
       <c r="AY9" s="20">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AZ9" s="33">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA9" s="33">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB9" s="2"/>
     </row>
@@ -1631,7 +1636,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G10" s="24">
         <v>2</v>
@@ -1678,60 +1683,62 @@
         <v>2</v>
       </c>
       <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
+      <c r="AC10" s="20">
+        <v>1</v>
+      </c>
       <c r="AD10" s="20">
         <f t="shared" ref="AD10:AD56" si="24">AA10-AC10</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
       <c r="AG10" s="20">
         <f t="shared" ref="AG10:AG56" si="25">AD10-AF10</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH10" s="20"/>
       <c r="AI10" s="20"/>
       <c r="AJ10" s="20">
         <f t="shared" ref="AJ10:AJ56" si="26">AG10-AI10</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK10" s="20"/>
       <c r="AL10" s="20"/>
       <c r="AM10" s="20">
         <f t="shared" ref="AM10:AM56" si="27">AJ10-AL10</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN10" s="20"/>
       <c r="AO10" s="20"/>
       <c r="AP10" s="20">
         <f t="shared" ref="AP10:AP56" si="28">AM10-AO10</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ10" s="20"/>
       <c r="AR10" s="20"/>
       <c r="AS10" s="20">
         <f t="shared" ref="AS10:AS56" si="29">AP10-AR10</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="20"/>
       <c r="AU10" s="20"/>
       <c r="AV10" s="20">
         <f t="shared" ref="AV10:AV56" si="30">AS10-AU10</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="20"/>
       <c r="AX10" s="20"/>
       <c r="AY10" s="20">
         <f t="shared" ref="AY10:AY56" si="31">AV10-AX10</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="33">
         <f t="shared" ref="AZ10:AZ56" si="32">H10+K10+N10+Q10+T10+W10+Z10+AC10+AF10+AI10+AL10+AO10+AR10+AU10+AX10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="33">
         <f t="shared" ref="BA10" si="33">G10-AZ10</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="2"/>
     </row>
@@ -1801,7 +1808,7 @@
         <v>44</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>77</v>
@@ -1917,7 +1924,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>77</v>
@@ -2440,7 +2447,7 @@
         <v>44</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>77</v>
@@ -2556,7 +2563,7 @@
         <v>43</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>77</v>
@@ -2671,7 +2678,7 @@
       <c r="D20" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="48" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="17" t="s">

--- a/Plantillas/Entrega 7/Plantilla Lista de Tareas de la Entrega 7.xlsx
+++ b/Plantillas/Entrega 7/Plantilla Lista de Tareas de la Entrega 7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\OneDrive\Documentos\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C626E12-3A9C-4940-B667-F43A8B1168C2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1276C1C1-F56B-4B5A-9B33-8E3B893F558D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="78">
   <si>
     <t>Columna</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Diagrama de secuencia</t>
-  </si>
-  <si>
-    <t>Por inciar</t>
   </si>
   <si>
     <t>Codificación</t>
@@ -925,10 +922,10 @@
   <dimension ref="B1:BB57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="AQ20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="AZ56" sqref="AZ56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,10 +1218,10 @@
     </row>
     <row r="6" spans="2:54" s="22" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -1282,13 +1279,13 @@
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="46" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="24">
         <v>1</v>
@@ -1404,7 +1401,7 @@
         <v>41</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="24">
         <v>1</v>
@@ -1514,13 +1511,13 @@
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
       <c r="D9" s="46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="46" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" s="24">
         <v>5</v>
@@ -1630,13 +1627,13 @@
       <c r="B10" s="23"/>
       <c r="C10" s="18"/>
       <c r="D10" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" s="24">
         <v>2</v>
@@ -1744,10 +1741,10 @@
     </row>
     <row r="11" spans="2:54" s="22" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -1811,7 +1808,7 @@
         <v>41</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" s="24">
         <v>1</v>
@@ -1927,7 +1924,7 @@
         <v>41</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="24">
         <v>1</v>
@@ -2037,13 +2034,13 @@
       <c r="B14" s="23"/>
       <c r="C14" s="18"/>
       <c r="D14" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" s="24">
         <v>1</v>
@@ -2153,13 +2150,13 @@
       <c r="B15" s="23"/>
       <c r="C15" s="18"/>
       <c r="D15" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15" s="24">
         <v>5</v>
@@ -2269,13 +2266,13 @@
       <c r="B16" s="23"/>
       <c r="C16" s="18"/>
       <c r="D16" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G16" s="24">
         <v>1</v>
@@ -2383,10 +2380,10 @@
     </row>
     <row r="17" spans="2:54" s="22" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="23"/>
@@ -2450,7 +2447,7 @@
         <v>41</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="24">
         <v>1</v>
@@ -2566,7 +2563,7 @@
         <v>41</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G19" s="24">
         <v>1</v>
@@ -2676,13 +2673,13 @@
       <c r="B20" s="23"/>
       <c r="C20" s="18"/>
       <c r="D20" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="48" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G20" s="24">
         <v>1</v>
@@ -2792,13 +2789,13 @@
       <c r="B21" s="23"/>
       <c r="C21" s="18"/>
       <c r="D21" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" s="24">
         <v>5</v>
@@ -2908,13 +2905,13 @@
       <c r="B22" s="23"/>
       <c r="C22" s="18"/>
       <c r="D22" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G22" s="24">
         <v>1</v>
@@ -3022,10 +3019,10 @@
     </row>
     <row r="23" spans="2:54" s="22" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="23"/>
@@ -3089,7 +3086,7 @@
         <v>41</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G24" s="24">
         <v>1</v>
@@ -3203,7 +3200,7 @@
         <v>41</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G25" s="24">
         <v>1</v>
@@ -3311,13 +3308,13 @@
       <c r="B26" s="23"/>
       <c r="C26" s="18"/>
       <c r="D26" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G26" s="24">
         <v>1</v>
@@ -3425,13 +3422,13 @@
       <c r="B27" s="23"/>
       <c r="C27" s="18"/>
       <c r="D27" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G27" s="24">
         <v>5</v>
@@ -3539,13 +3536,13 @@
       <c r="B28" s="23"/>
       <c r="C28" s="18"/>
       <c r="D28" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>41</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G28" s="24">
         <v>1</v>
@@ -3651,10 +3648,10 @@
     </row>
     <row r="29" spans="2:54" s="30" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>65</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>66</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
@@ -3711,13 +3708,13 @@
       <c r="B30" s="31"/>
       <c r="C30" s="26"/>
       <c r="D30" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" s="28" t="s">
         <v>40</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" s="32">
         <v>3</v>
@@ -3825,13 +3822,13 @@
       <c r="B31" s="31"/>
       <c r="C31" s="26"/>
       <c r="D31" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" s="28" t="s">
         <v>40</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G31" s="32">
         <v>2</v>
@@ -3937,10 +3934,10 @@
     </row>
     <row r="32" spans="2:54" s="30" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="26" t="s">
         <v>67</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>68</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="28"/>
@@ -4028,13 +4025,13 @@
       <c r="B33" s="31"/>
       <c r="C33" s="26"/>
       <c r="D33" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E33" s="28" t="s">
         <v>40</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G33" s="32">
         <v>5</v>
@@ -4142,13 +4139,13 @@
       <c r="B34" s="31"/>
       <c r="C34" s="26"/>
       <c r="D34" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E34" s="28" t="s">
         <v>40</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G34" s="32">
         <v>2</v>
@@ -4254,10 +4251,10 @@
     </row>
     <row r="35" spans="2:54" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="26" t="s">
         <v>69</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>70</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="28"/>
@@ -4315,13 +4312,13 @@
       <c r="B36" s="31"/>
       <c r="C36" s="26"/>
       <c r="D36" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E36" s="28" t="s">
         <v>40</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G36" s="32">
         <v>6</v>
@@ -4429,13 +4426,13 @@
       <c r="B37" s="31"/>
       <c r="C37" s="26"/>
       <c r="D37" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" s="28" t="s">
         <v>40</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G37" s="32">
         <v>2</v>
@@ -4541,10 +4538,10 @@
     </row>
     <row r="38" spans="2:54" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="B38" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>71</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>72</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="28"/>
@@ -4602,13 +4599,13 @@
       <c r="B39" s="31"/>
       <c r="C39" s="26"/>
       <c r="D39" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>40</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G39" s="32">
         <v>2</v>
@@ -4716,13 +4713,13 @@
       <c r="B40" s="31"/>
       <c r="C40" s="26"/>
       <c r="D40" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" s="28" t="s">
         <v>40</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G40" s="32">
         <v>2</v>
@@ -4828,10 +4825,10 @@
     </row>
     <row r="41" spans="2:54" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="26" t="s">
         <v>73</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>74</v>
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="28"/>
@@ -4889,13 +4886,13 @@
       <c r="B42" s="31"/>
       <c r="C42" s="26"/>
       <c r="D42" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E42" s="28" t="s">
         <v>40</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G42" s="32">
         <v>5</v>
@@ -5003,13 +5000,13 @@
       <c r="B43" s="31"/>
       <c r="C43" s="26"/>
       <c r="D43" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" s="28" t="s">
         <v>40</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G43" s="32">
         <v>2</v>
@@ -5115,10 +5112,10 @@
     </row>
     <row r="44" spans="2:54" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B44" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="26" t="s">
         <v>75</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>76</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="28"/>
@@ -5176,13 +5173,13 @@
       <c r="B45" s="31"/>
       <c r="C45" s="26"/>
       <c r="D45" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E45" s="28" t="s">
         <v>40</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G45" s="32">
         <v>3</v>
@@ -5290,13 +5287,13 @@
       <c r="B46" s="31"/>
       <c r="C46" s="26"/>
       <c r="D46" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E46" s="28" t="s">
         <v>40</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G46" s="32">
         <v>2</v>
@@ -5402,10 +5399,10 @@
     </row>
     <row r="47" spans="2:54" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -5463,13 +5460,13 @@
       <c r="B48" s="34"/>
       <c r="C48" s="35"/>
       <c r="D48" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E48" s="47" t="s">
         <v>42</v>
       </c>
       <c r="F48" s="37" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G48" s="41">
         <v>1</v>
@@ -5579,13 +5576,13 @@
       <c r="B49" s="40"/>
       <c r="C49" s="35"/>
       <c r="D49" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E49" s="34" t="s">
         <v>42</v>
       </c>
       <c r="F49" s="40" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="G49" s="41">
         <v>15</v>
@@ -5608,84 +5605,90 @@
         <v>15</v>
       </c>
       <c r="P49" s="37"/>
-      <c r="Q49" s="37"/>
+      <c r="Q49" s="37">
+        <v>3</v>
+      </c>
       <c r="R49" s="37">
         <f t="shared" si="20"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
+      <c r="T49" s="37">
+        <v>2</v>
+      </c>
       <c r="U49" s="37">
         <f t="shared" si="34"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="V49" s="37"/>
-      <c r="W49" s="37"/>
+      <c r="W49" s="37">
+        <v>2</v>
+      </c>
       <c r="X49" s="37">
         <f t="shared" si="35"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Y49" s="37"/>
       <c r="Z49" s="37"/>
       <c r="AA49" s="37">
         <f t="shared" si="23"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AB49" s="37"/>
       <c r="AC49" s="37"/>
       <c r="AD49" s="37">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AE49" s="37"/>
       <c r="AF49" s="37"/>
       <c r="AG49" s="37">
         <f t="shared" si="25"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AH49" s="37"/>
       <c r="AI49" s="37"/>
       <c r="AJ49" s="37">
         <f t="shared" si="26"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AK49" s="37"/>
       <c r="AL49" s="37"/>
       <c r="AM49" s="37">
         <f t="shared" si="27"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AN49" s="37"/>
       <c r="AO49" s="37"/>
       <c r="AP49" s="37">
         <f t="shared" si="28"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AQ49" s="37"/>
       <c r="AR49" s="37"/>
       <c r="AS49" s="37">
         <f t="shared" si="29"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AT49" s="37"/>
       <c r="AU49" s="37"/>
       <c r="AV49" s="37">
         <f t="shared" si="30"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AW49" s="37"/>
       <c r="AX49" s="37"/>
       <c r="AY49" s="37">
         <f t="shared" si="31"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AZ49" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BA49" s="33">
         <f>G49-AZ49</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BB49" s="2"/>
     </row>
@@ -5693,13 +5696,13 @@
       <c r="B50" s="40"/>
       <c r="C50" s="35"/>
       <c r="D50" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E50" s="34" t="s">
         <v>42</v>
       </c>
       <c r="F50" s="40" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="G50" s="41">
         <v>4</v>
@@ -5740,75 +5743,77 @@
         <v>4</v>
       </c>
       <c r="Y50" s="37"/>
-      <c r="Z50" s="37"/>
+      <c r="Z50" s="37">
+        <v>1</v>
+      </c>
       <c r="AA50" s="37">
         <f t="shared" si="23"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB50" s="37"/>
       <c r="AC50" s="37"/>
       <c r="AD50" s="37">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE50" s="37"/>
       <c r="AF50" s="37"/>
       <c r="AG50" s="37">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH50" s="37"/>
       <c r="AI50" s="37"/>
       <c r="AJ50" s="37">
         <f t="shared" si="26"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK50" s="37"/>
       <c r="AL50" s="37"/>
       <c r="AM50" s="37">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN50" s="37"/>
       <c r="AO50" s="37"/>
       <c r="AP50" s="37">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ50" s="37"/>
       <c r="AR50" s="37"/>
       <c r="AS50" s="37">
         <f t="shared" si="29"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT50" s="37"/>
       <c r="AU50" s="37"/>
       <c r="AV50" s="37">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW50" s="37"/>
       <c r="AX50" s="37"/>
       <c r="AY50" s="37">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ50" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA50" s="33">
         <f>G50-AZ50</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB50" s="2"/>
     </row>
     <row r="51" spans="2:54" s="39" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D51" s="34"/>
       <c r="E51" s="34"/>
@@ -5866,13 +5871,13 @@
       <c r="B52" s="40"/>
       <c r="C52" s="35"/>
       <c r="D52" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E52" s="34" t="s">
         <v>42</v>
       </c>
       <c r="F52" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G52" s="41">
         <v>5</v>
@@ -5982,13 +5987,13 @@
       <c r="B53" s="40"/>
       <c r="C53" s="35"/>
       <c r="D53" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E53" s="34" t="s">
         <v>42</v>
       </c>
       <c r="F53" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G53" s="41">
         <v>1</v>
@@ -6096,10 +6101,10 @@
     </row>
     <row r="54" spans="2:54" s="39" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="35" t="s">
         <v>63</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>64</v>
       </c>
       <c r="D54" s="34"/>
       <c r="E54" s="34"/>
@@ -6157,13 +6162,13 @@
       <c r="B55" s="40"/>
       <c r="C55" s="35"/>
       <c r="D55" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E55" s="34" t="s">
         <v>42</v>
       </c>
       <c r="F55" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G55" s="41">
         <v>2</v>
@@ -6273,13 +6278,13 @@
       <c r="B56" s="40"/>
       <c r="C56" s="35"/>
       <c r="D56" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E56" s="34" t="s">
         <v>42</v>
       </c>
       <c r="F56" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G56" s="41">
         <v>10</v>
@@ -6441,11 +6446,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -6457,6 +6457,11 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="50" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>

--- a/Plantillas/Entrega 7/Plantilla Lista de Tareas de la Entrega 7.xlsx
+++ b/Plantillas/Entrega 7/Plantilla Lista de Tareas de la Entrega 7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\OneDrive\Documentos\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renato\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1276C1C1-F56B-4B5A-9B33-8E3B893F558D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6995D5D6-698E-4310-9778-63037F3A2483}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="73">
   <si>
     <t>Columna</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Interfaz Gráfica</t>
   </si>
   <si>
-    <t>Por iniciar</t>
-  </si>
-  <si>
     <t>Diagrama se secuencia</t>
   </si>
   <si>
@@ -230,18 +227,6 @@
   </si>
   <si>
     <t>En este caso de uso el Maestro registrará una nueva Promoción y sus detalles, dicha Promoción podrá ser aplicada cuando se realicé el registro de un pago, ya sea de Inscripción o Mensualidad</t>
-  </si>
-  <si>
-    <t>CU-20</t>
-  </si>
-  <si>
-    <t>En este caso de uso el Director podrá generar y visualizar Reportes mensuales,  los cuales contendrán los ingresos y egresos del mes.</t>
-  </si>
-  <si>
-    <t>CU-22</t>
-  </si>
-  <si>
-    <t>En este caso de uso el Maestro podrá visualizar la información  generada por el sistema cuando ocurra un evento relevante</t>
   </si>
   <si>
     <t>CU-24</t>
@@ -922,10 +907,10 @@
   <dimension ref="B1:BB57"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="AQ20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AZ56" sqref="AZ56"/>
+      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,7 +1071,7 @@
       </c>
       <c r="BA4" s="50"/>
     </row>
-    <row r="5" spans="2:54" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:54" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
@@ -1218,10 +1203,10 @@
     </row>
     <row r="6" spans="2:54" s="22" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -1279,13 +1264,13 @@
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="46" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G7" s="24">
         <v>1</v>
@@ -1401,7 +1386,7 @@
         <v>41</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G8" s="24">
         <v>1</v>
@@ -1517,7 +1502,7 @@
         <v>41</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G9" s="24">
         <v>5</v>
@@ -1633,32 +1618,32 @@
         <v>41</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G10" s="24">
         <v>2</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20">
-        <f t="shared" ref="I10:I56" si="17">G10-H10</f>
+        <f t="shared" ref="I10:I50" si="17">G10-H10</f>
         <v>2</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20">
-        <f t="shared" ref="L10:L56" si="18">I10-K10</f>
+        <f t="shared" ref="L10:L50" si="18">I10-K10</f>
         <v>2</v>
       </c>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20">
-        <f t="shared" ref="O10:O56" si="19">L10-N10</f>
+        <f t="shared" ref="O10:O50" si="19">L10-N10</f>
         <v>2</v>
       </c>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="20">
-        <f t="shared" ref="R10:R56" si="20">O10-Q10</f>
+        <f t="shared" ref="R10:R50" si="20">O10-Q10</f>
         <v>2</v>
       </c>
       <c r="S10" s="20"/>
@@ -1676,7 +1661,7 @@
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20">
-        <f t="shared" ref="AA10:AA56" si="23">X10-Z10</f>
+        <f t="shared" ref="AA10:AA50" si="23">X10-Z10</f>
         <v>2</v>
       </c>
       <c r="AB10" s="20"/>
@@ -1684,53 +1669,53 @@
         <v>1</v>
       </c>
       <c r="AD10" s="20">
-        <f t="shared" ref="AD10:AD56" si="24">AA10-AC10</f>
+        <f t="shared" ref="AD10:AD50" si="24">AA10-AC10</f>
         <v>1</v>
       </c>
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
       <c r="AG10" s="20">
-        <f t="shared" ref="AG10:AG56" si="25">AD10-AF10</f>
+        <f t="shared" ref="AG10:AG50" si="25">AD10-AF10</f>
         <v>1</v>
       </c>
       <c r="AH10" s="20"/>
       <c r="AI10" s="20"/>
       <c r="AJ10" s="20">
-        <f t="shared" ref="AJ10:AJ56" si="26">AG10-AI10</f>
+        <f t="shared" ref="AJ10:AJ50" si="26">AG10-AI10</f>
         <v>1</v>
       </c>
       <c r="AK10" s="20"/>
       <c r="AL10" s="20"/>
       <c r="AM10" s="20">
-        <f t="shared" ref="AM10:AM56" si="27">AJ10-AL10</f>
+        <f t="shared" ref="AM10:AM50" si="27">AJ10-AL10</f>
         <v>1</v>
       </c>
       <c r="AN10" s="20"/>
       <c r="AO10" s="20"/>
       <c r="AP10" s="20">
-        <f t="shared" ref="AP10:AP56" si="28">AM10-AO10</f>
+        <f t="shared" ref="AP10:AP50" si="28">AM10-AO10</f>
         <v>1</v>
       </c>
       <c r="AQ10" s="20"/>
       <c r="AR10" s="20"/>
       <c r="AS10" s="20">
-        <f t="shared" ref="AS10:AS56" si="29">AP10-AR10</f>
+        <f t="shared" ref="AS10:AS50" si="29">AP10-AR10</f>
         <v>1</v>
       </c>
       <c r="AT10" s="20"/>
       <c r="AU10" s="20"/>
       <c r="AV10" s="20">
-        <f t="shared" ref="AV10:AV56" si="30">AS10-AU10</f>
+        <f t="shared" ref="AV10:AV50" si="30">AS10-AU10</f>
         <v>1</v>
       </c>
       <c r="AW10" s="20"/>
       <c r="AX10" s="20"/>
       <c r="AY10" s="20">
-        <f t="shared" ref="AY10:AY56" si="31">AV10-AX10</f>
+        <f t="shared" ref="AY10:AY50" si="31">AV10-AX10</f>
         <v>1</v>
       </c>
       <c r="AZ10" s="33">
-        <f t="shared" ref="AZ10:AZ56" si="32">H10+K10+N10+Q10+T10+W10+Z10+AC10+AF10+AI10+AL10+AO10+AR10+AU10+AX10</f>
+        <f t="shared" ref="AZ10:AZ50" si="32">H10+K10+N10+Q10+T10+W10+Z10+AC10+AF10+AI10+AL10+AO10+AR10+AU10+AX10</f>
         <v>1</v>
       </c>
       <c r="BA10" s="33">
@@ -1741,10 +1726,10 @@
     </row>
     <row r="11" spans="2:54" s="22" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -1808,7 +1793,7 @@
         <v>41</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G12" s="24">
         <v>1</v>
@@ -1841,13 +1826,13 @@
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20">
-        <f t="shared" ref="U12:U56" si="34">R12-T12</f>
+        <f t="shared" ref="U12:U50" si="34">R12-T12</f>
         <v>0</v>
       </c>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20">
-        <f t="shared" ref="X12:X56" si="35">U12-W12</f>
+        <f t="shared" ref="X12:X50" si="35">U12-W12</f>
         <v>0</v>
       </c>
       <c r="Y12" s="20"/>
@@ -1924,7 +1909,7 @@
         <v>41</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G13" s="24">
         <v>1</v>
@@ -2040,7 +2025,7 @@
         <v>41</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G14" s="24">
         <v>1</v>
@@ -2156,7 +2141,7 @@
         <v>41</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G15" s="24">
         <v>5</v>
@@ -2272,7 +2257,7 @@
         <v>41</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G16" s="24">
         <v>1</v>
@@ -2380,10 +2365,10 @@
     </row>
     <row r="17" spans="2:54" s="22" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="23"/>
@@ -2447,7 +2432,7 @@
         <v>41</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G18" s="24">
         <v>1</v>
@@ -2563,7 +2548,7 @@
         <v>41</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G19" s="24">
         <v>1</v>
@@ -2679,7 +2664,7 @@
         <v>41</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G20" s="24">
         <v>1</v>
@@ -2795,7 +2780,7 @@
         <v>41</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G21" s="24">
         <v>5</v>
@@ -2911,7 +2896,7 @@
         <v>41</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G22" s="24">
         <v>1</v>
@@ -3019,10 +3004,10 @@
     </row>
     <row r="23" spans="2:54" s="22" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="23"/>
@@ -3086,7 +3071,7 @@
         <v>41</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G24" s="24">
         <v>1</v>
@@ -3200,7 +3185,7 @@
         <v>41</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G25" s="24">
         <v>1</v>
@@ -3314,7 +3299,7 @@
         <v>41</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G26" s="24">
         <v>1</v>
@@ -3428,7 +3413,7 @@
         <v>41</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G27" s="24">
         <v>5</v>
@@ -3542,7 +3527,7 @@
         <v>41</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G28" s="24">
         <v>1</v>
@@ -3648,10 +3633,10 @@
     </row>
     <row r="29" spans="2:54" s="30" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>64</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>65</v>
       </c>
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
@@ -3714,7 +3699,7 @@
         <v>40</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G30" s="32">
         <v>3</v>
@@ -3749,72 +3734,76 @@
         <v>3</v>
       </c>
       <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
+      <c r="W30" s="28">
+        <v>2</v>
+      </c>
       <c r="X30" s="28">
         <f>U30-W30</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="28"/>
       <c r="Z30" s="28"/>
       <c r="AA30" s="28">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
+      <c r="AC30" s="28">
+        <v>1</v>
+      </c>
       <c r="AD30" s="28">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="28"/>
       <c r="AF30" s="28"/>
       <c r="AG30" s="28">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="28"/>
       <c r="AI30" s="28"/>
       <c r="AJ30" s="28">
         <f t="shared" si="26"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="28"/>
       <c r="AL30" s="28"/>
       <c r="AM30" s="28">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN30" s="28"/>
       <c r="AO30" s="28"/>
       <c r="AP30" s="28">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="28"/>
       <c r="AR30" s="28"/>
       <c r="AS30" s="28">
         <f t="shared" si="29"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="28"/>
       <c r="AU30" s="28"/>
       <c r="AV30" s="28">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW30" s="28"/>
       <c r="AX30" s="28"/>
       <c r="AY30" s="28">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AZ30" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA30" s="33">
-        <f t="shared" ref="BA30:BA46" si="37">G30-AZ30</f>
-        <v>3</v>
+        <f t="shared" ref="BA30:BA40" si="37">G30-AZ30</f>
+        <v>0</v>
       </c>
       <c r="BB30" s="2"/>
     </row>
@@ -3828,7 +3817,7 @@
         <v>40</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G31" s="32">
         <v>2</v>
@@ -3905,39 +3894,41 @@
         <v>2</v>
       </c>
       <c r="AQ31" s="28"/>
-      <c r="AR31" s="28"/>
+      <c r="AR31" s="28">
+        <v>2</v>
+      </c>
       <c r="AS31" s="28">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT31" s="28"/>
       <c r="AU31" s="28"/>
       <c r="AV31" s="28">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW31" s="28"/>
       <c r="AX31" s="28"/>
       <c r="AY31" s="28">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ31" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA31" s="33">
         <f t="shared" si="37"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB31" s="2"/>
     </row>
     <row r="32" spans="2:54" s="30" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="26" t="s">
         <v>66</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>67</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="28"/>
@@ -3965,60 +3956,30 @@
       <c r="AA32" s="28"/>
       <c r="AB32" s="28"/>
       <c r="AC32" s="28"/>
-      <c r="AD32" s="28">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+      <c r="AD32" s="28"/>
       <c r="AE32" s="28"/>
       <c r="AF32" s="28"/>
-      <c r="AG32" s="28">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
+      <c r="AG32" s="28"/>
       <c r="AH32" s="28"/>
       <c r="AI32" s="28"/>
-      <c r="AJ32" s="28">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
+      <c r="AJ32" s="28"/>
       <c r="AK32" s="28"/>
       <c r="AL32" s="28"/>
-      <c r="AM32" s="28">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
+      <c r="AM32" s="28"/>
       <c r="AN32" s="28"/>
       <c r="AO32" s="28"/>
-      <c r="AP32" s="28">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
+      <c r="AP32" s="28"/>
       <c r="AQ32" s="28"/>
       <c r="AR32" s="28"/>
-      <c r="AS32" s="28">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
+      <c r="AS32" s="28"/>
       <c r="AT32" s="28"/>
       <c r="AU32" s="28"/>
-      <c r="AV32" s="28">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
+      <c r="AV32" s="28"/>
       <c r="AW32" s="28"/>
       <c r="AX32" s="28"/>
-      <c r="AY32" s="28">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AZ32" s="33">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="BA32" s="33">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
+      <c r="AY32" s="28"/>
+      <c r="AZ32" s="33"/>
+      <c r="BA32" s="33"/>
       <c r="BB32" s="2"/>
     </row>
     <row r="33" spans="2:54" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -4031,107 +3992,109 @@
         <v>40</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G33" s="32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H33" s="28"/>
       <c r="I33" s="28">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J33" s="28"/>
       <c r="K33" s="28"/>
       <c r="L33" s="28">
         <f t="shared" si="18"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M33" s="28"/>
       <c r="N33" s="28"/>
       <c r="O33" s="28">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P33" s="28"/>
       <c r="Q33" s="28"/>
       <c r="R33" s="28">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S33" s="28"/>
       <c r="T33" s="28"/>
       <c r="U33" s="28">
-        <f t="shared" ref="U33:U46" si="38">R33-T33</f>
-        <v>5</v>
+        <f t="shared" ref="U33:U40" si="38">R33-T33</f>
+        <v>2</v>
       </c>
       <c r="V33" s="28"/>
       <c r="W33" s="28"/>
       <c r="X33" s="28">
-        <f t="shared" ref="X33:X46" si="39">U33-W33</f>
-        <v>5</v>
+        <f t="shared" ref="X33:X40" si="39">U33-W33</f>
+        <v>2</v>
       </c>
       <c r="Y33" s="28"/>
       <c r="Z33" s="28"/>
       <c r="AA33" s="28">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB33" s="28"/>
       <c r="AC33" s="28"/>
       <c r="AD33" s="28">
         <f t="shared" si="24"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE33" s="28"/>
       <c r="AF33" s="28"/>
       <c r="AG33" s="28">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AH33" s="28"/>
       <c r="AI33" s="28"/>
       <c r="AJ33" s="28">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AK33" s="28"/>
-      <c r="AL33" s="28"/>
+      <c r="AL33" s="28">
+        <v>2</v>
+      </c>
       <c r="AM33" s="28">
         <f t="shared" si="27"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AN33" s="28"/>
       <c r="AO33" s="28"/>
       <c r="AP33" s="28">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="28"/>
       <c r="AR33" s="28"/>
       <c r="AS33" s="28">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="28"/>
       <c r="AU33" s="28"/>
       <c r="AV33" s="28">
         <f t="shared" si="30"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AW33" s="28"/>
       <c r="AX33" s="28"/>
       <c r="AY33" s="28">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AZ33" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA33" s="33">
         <f t="shared" si="37"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BB33" s="2"/>
     </row>
@@ -4145,7 +4108,7 @@
         <v>40</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G34" s="32">
         <v>2</v>
@@ -4216,45 +4179,49 @@
         <v>2</v>
       </c>
       <c r="AN34" s="28"/>
-      <c r="AO34" s="28"/>
+      <c r="AO34" s="28">
+        <v>1</v>
+      </c>
       <c r="AP34" s="28">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ34" s="28"/>
-      <c r="AR34" s="28"/>
+      <c r="AR34" s="28">
+        <v>1</v>
+      </c>
       <c r="AS34" s="28">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="28"/>
       <c r="AU34" s="28"/>
       <c r="AV34" s="28">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW34" s="28"/>
       <c r="AX34" s="28"/>
       <c r="AY34" s="28">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ34" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA34" s="33">
         <f t="shared" si="37"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB34" s="2"/>
     </row>
     <row r="35" spans="2:54" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="26" t="s">
         <v>68</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>69</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="28"/>
@@ -4318,107 +4285,113 @@
         <v>40</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G36" s="32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H36" s="28"/>
       <c r="I36" s="28">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
       <c r="L36" s="28">
         <f t="shared" si="18"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M36" s="28"/>
       <c r="N36" s="28"/>
       <c r="O36" s="28">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
+      <c r="Q36" s="28">
+        <v>1</v>
+      </c>
       <c r="R36" s="28">
         <f t="shared" si="20"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S36" s="28"/>
       <c r="T36" s="28"/>
       <c r="U36" s="28">
         <f t="shared" si="38"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V36" s="28"/>
       <c r="W36" s="28"/>
       <c r="X36" s="28">
         <f t="shared" si="39"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y36" s="28"/>
-      <c r="Z36" s="28"/>
+      <c r="Z36" s="28">
+        <v>2</v>
+      </c>
       <c r="AA36" s="28">
         <f t="shared" si="23"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB36" s="28"/>
       <c r="AC36" s="28"/>
       <c r="AD36" s="28">
         <f t="shared" si="24"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE36" s="28"/>
-      <c r="AF36" s="28"/>
+      <c r="AF36" s="28">
+        <v>2</v>
+      </c>
       <c r="AG36" s="28">
         <f t="shared" si="25"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="28"/>
       <c r="AI36" s="28"/>
       <c r="AJ36" s="28">
         <f t="shared" si="26"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="28"/>
       <c r="AL36" s="28"/>
       <c r="AM36" s="28">
         <f t="shared" si="27"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AN36" s="28"/>
       <c r="AO36" s="28"/>
       <c r="AP36" s="28">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="28"/>
       <c r="AR36" s="28"/>
       <c r="AS36" s="28">
         <f t="shared" si="29"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="28"/>
       <c r="AU36" s="28"/>
       <c r="AV36" s="28">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW36" s="28"/>
       <c r="AX36" s="28"/>
       <c r="AY36" s="28">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AZ36" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA36" s="33">
         <f t="shared" si="37"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BB36" s="2"/>
     </row>
@@ -4432,7 +4405,7 @@
         <v>40</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G37" s="32">
         <v>2</v>
@@ -4497,51 +4470,55 @@
         <v>2</v>
       </c>
       <c r="AK37" s="28"/>
-      <c r="AL37" s="28"/>
+      <c r="AL37" s="28">
+        <v>1</v>
+      </c>
       <c r="AM37" s="28">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN37" s="28"/>
       <c r="AO37" s="28"/>
       <c r="AP37" s="28">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ37" s="28"/>
-      <c r="AR37" s="28"/>
+      <c r="AR37" s="28">
+        <v>2</v>
+      </c>
       <c r="AS37" s="28">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AT37" s="28"/>
       <c r="AU37" s="28"/>
       <c r="AV37" s="28">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW37" s="28"/>
       <c r="AX37" s="28"/>
       <c r="AY37" s="28">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AZ37" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA37" s="33">
         <f t="shared" si="37"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BB37" s="2"/>
     </row>
-    <row r="38" spans="2:54" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B38" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>70</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>71</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="28"/>
@@ -4605,107 +4582,109 @@
         <v>40</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G39" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39" s="28"/>
       <c r="I39" s="28">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J39" s="28"/>
       <c r="K39" s="28"/>
       <c r="L39" s="28">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M39" s="28"/>
       <c r="N39" s="28"/>
       <c r="O39" s="28">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P39" s="28"/>
       <c r="Q39" s="28"/>
       <c r="R39" s="28">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S39" s="28"/>
       <c r="T39" s="28"/>
       <c r="U39" s="28">
         <f t="shared" si="38"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
+      <c r="W39" s="28">
+        <v>3</v>
+      </c>
       <c r="X39" s="28">
         <f t="shared" si="39"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="28"/>
       <c r="Z39" s="28"/>
       <c r="AA39" s="28">
         <f t="shared" si="23"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="28"/>
       <c r="AC39" s="28"/>
       <c r="AD39" s="28">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="28"/>
       <c r="AF39" s="28"/>
       <c r="AG39" s="28">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH39" s="28"/>
       <c r="AI39" s="28"/>
       <c r="AJ39" s="28">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK39" s="28"/>
       <c r="AL39" s="28"/>
       <c r="AM39" s="28">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN39" s="28"/>
       <c r="AO39" s="28"/>
       <c r="AP39" s="28">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ39" s="28"/>
       <c r="AR39" s="28"/>
       <c r="AS39" s="28">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="28"/>
       <c r="AU39" s="28"/>
       <c r="AV39" s="28">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW39" s="28"/>
       <c r="AX39" s="28"/>
       <c r="AY39" s="28">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ39" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA39" s="33">
         <f t="shared" si="37"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB39" s="2"/>
     </row>
@@ -4719,7 +4698,7 @@
         <v>40</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G40" s="32">
         <v>2</v>
@@ -4778,917 +4757,929 @@
         <v>2</v>
       </c>
       <c r="AH40" s="28"/>
-      <c r="AI40" s="28"/>
+      <c r="AI40" s="28">
+        <v>1</v>
+      </c>
       <c r="AJ40" s="28">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK40" s="28"/>
       <c r="AL40" s="28"/>
       <c r="AM40" s="28">
         <f t="shared" si="27"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN40" s="28"/>
-      <c r="AO40" s="28"/>
+      <c r="AO40" s="28">
+        <v>1</v>
+      </c>
       <c r="AP40" s="28">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="28"/>
       <c r="AR40" s="28"/>
       <c r="AS40" s="28">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="28"/>
       <c r="AU40" s="28"/>
       <c r="AV40" s="28">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW40" s="28"/>
       <c r="AX40" s="28"/>
       <c r="AY40" s="28">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ40" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA40" s="33">
         <f t="shared" si="37"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="2"/>
     </row>
     <row r="41" spans="2:54" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="28"/>
-      <c r="AE41" s="28"/>
-      <c r="AF41" s="28"/>
-      <c r="AG41" s="28"/>
-      <c r="AH41" s="28"/>
-      <c r="AI41" s="28"/>
-      <c r="AJ41" s="28"/>
-      <c r="AK41" s="28"/>
-      <c r="AL41" s="28"/>
-      <c r="AM41" s="28"/>
-      <c r="AN41" s="28"/>
-      <c r="AO41" s="28"/>
-      <c r="AP41" s="28"/>
-      <c r="AQ41" s="28"/>
-      <c r="AR41" s="28"/>
-      <c r="AS41" s="28"/>
-      <c r="AT41" s="28"/>
-      <c r="AU41" s="28"/>
-      <c r="AV41" s="28"/>
-      <c r="AW41" s="28"/>
-      <c r="AX41" s="28"/>
-      <c r="AY41" s="28"/>
+      <c r="B41" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="37"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="37"/>
+      <c r="AE41" s="37"/>
+      <c r="AF41" s="37"/>
+      <c r="AG41" s="37"/>
+      <c r="AH41" s="37"/>
+      <c r="AI41" s="37"/>
+      <c r="AJ41" s="37"/>
+      <c r="AK41" s="37"/>
+      <c r="AL41" s="37"/>
+      <c r="AM41" s="37"/>
+      <c r="AN41" s="37"/>
+      <c r="AO41" s="37"/>
+      <c r="AP41" s="37"/>
+      <c r="AQ41" s="37"/>
+      <c r="AR41" s="37"/>
+      <c r="AS41" s="37"/>
+      <c r="AT41" s="37"/>
+      <c r="AU41" s="37"/>
+      <c r="AV41" s="37"/>
+      <c r="AW41" s="37"/>
+      <c r="AX41" s="37"/>
+      <c r="AY41" s="37"/>
       <c r="AZ41" s="33"/>
       <c r="BA41" s="33"/>
       <c r="BB41" s="2"/>
     </row>
     <row r="42" spans="2:54" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="31"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" s="32">
-        <v>5</v>
-      </c>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28">
+      <c r="B42" s="34"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" s="41">
+        <v>1</v>
+      </c>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37">
         <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28">
-        <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28">
+        <v>1</v>
+      </c>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37">
+        <f>I42-K42</f>
+        <v>1</v>
+      </c>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37">
+        <f>L42-N42</f>
+        <v>1</v>
+      </c>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37">
+        <v>1</v>
+      </c>
+      <c r="R42" s="37">
         <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28">
-        <f t="shared" si="38"/>
-        <v>5</v>
-      </c>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28">
-        <f t="shared" si="39"/>
-        <v>5</v>
-      </c>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28">
+        <v>0</v>
+      </c>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
+      <c r="AA42" s="37">
         <f t="shared" si="23"/>
-        <v>5</v>
-      </c>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="37"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="37">
         <f t="shared" si="24"/>
-        <v>5</v>
-      </c>
-      <c r="AE42" s="28"/>
-      <c r="AF42" s="28"/>
-      <c r="AG42" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="37"/>
+      <c r="AF42" s="37"/>
+      <c r="AG42" s="37">
         <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="AH42" s="28"/>
-      <c r="AI42" s="28"/>
-      <c r="AJ42" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="37"/>
+      <c r="AI42" s="37"/>
+      <c r="AJ42" s="37">
         <f t="shared" si="26"/>
-        <v>5</v>
-      </c>
-      <c r="AK42" s="28"/>
-      <c r="AL42" s="28"/>
-      <c r="AM42" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="37"/>
+      <c r="AL42" s="37"/>
+      <c r="AM42" s="37">
         <f t="shared" si="27"/>
-        <v>5</v>
-      </c>
-      <c r="AN42" s="28"/>
-      <c r="AO42" s="28"/>
-      <c r="AP42" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="37"/>
+      <c r="AO42" s="37"/>
+      <c r="AP42" s="37">
         <f t="shared" si="28"/>
-        <v>5</v>
-      </c>
-      <c r="AQ42" s="28"/>
-      <c r="AR42" s="28"/>
-      <c r="AS42" s="28">
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="37"/>
+      <c r="AR42" s="37"/>
+      <c r="AS42" s="37">
         <f t="shared" si="29"/>
-        <v>5</v>
-      </c>
-      <c r="AT42" s="28"/>
-      <c r="AU42" s="28"/>
-      <c r="AV42" s="28">
+        <v>0</v>
+      </c>
+      <c r="AT42" s="37"/>
+      <c r="AU42" s="37"/>
+      <c r="AV42" s="37">
         <f t="shared" si="30"/>
-        <v>5</v>
-      </c>
-      <c r="AW42" s="28"/>
-      <c r="AX42" s="28"/>
-      <c r="AY42" s="28">
+        <v>0</v>
+      </c>
+      <c r="AW42" s="37"/>
+      <c r="AX42" s="37"/>
+      <c r="AY42" s="37">
         <f t="shared" si="31"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AZ42" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA42" s="33">
-        <f t="shared" si="37"/>
-        <v>5</v>
+        <f>G42-AZ42</f>
+        <v>0</v>
       </c>
       <c r="BB42" s="2"/>
     </row>
     <row r="43" spans="2:54" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="31"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43" s="32">
-        <v>2</v>
-      </c>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28">
+      <c r="B43" s="40"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="41">
+        <v>15</v>
+      </c>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37">
         <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28">
+        <v>15</v>
+      </c>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37">
+        <f>I43-K43</f>
+        <v>15</v>
+      </c>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37">
+        <f>L43-N43</f>
+        <v>15</v>
+      </c>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37">
+        <v>3</v>
+      </c>
+      <c r="R43" s="37">
         <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="S43" s="28"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="28">
-        <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28">
-        <f t="shared" si="39"/>
-        <v>2</v>
-      </c>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="28">
+        <v>12</v>
+      </c>
+      <c r="S43" s="37"/>
+      <c r="T43" s="37">
+        <v>2</v>
+      </c>
+      <c r="U43" s="37">
+        <f t="shared" si="34"/>
+        <v>10</v>
+      </c>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37">
+        <v>2</v>
+      </c>
+      <c r="X43" s="37">
+        <f t="shared" si="35"/>
+        <v>8</v>
+      </c>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="37"/>
+      <c r="AA43" s="37">
         <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="28"/>
-      <c r="AD43" s="28">
+        <v>8</v>
+      </c>
+      <c r="AB43" s="37"/>
+      <c r="AC43" s="37"/>
+      <c r="AD43" s="37">
         <f t="shared" si="24"/>
-        <v>2</v>
-      </c>
-      <c r="AE43" s="28"/>
-      <c r="AF43" s="28"/>
-      <c r="AG43" s="28">
+        <v>8</v>
+      </c>
+      <c r="AE43" s="37"/>
+      <c r="AF43" s="37"/>
+      <c r="AG43" s="37">
         <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="AH43" s="28"/>
-      <c r="AI43" s="28"/>
-      <c r="AJ43" s="28">
+        <v>8</v>
+      </c>
+      <c r="AH43" s="37"/>
+      <c r="AI43" s="37"/>
+      <c r="AJ43" s="37">
         <f t="shared" si="26"/>
-        <v>2</v>
-      </c>
-      <c r="AK43" s="28"/>
-      <c r="AL43" s="28"/>
-      <c r="AM43" s="28">
+        <v>8</v>
+      </c>
+      <c r="AK43" s="37"/>
+      <c r="AL43" s="37"/>
+      <c r="AM43" s="37">
         <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="AN43" s="28"/>
-      <c r="AO43" s="28"/>
-      <c r="AP43" s="28">
+        <v>8</v>
+      </c>
+      <c r="AN43" s="37"/>
+      <c r="AO43" s="37"/>
+      <c r="AP43" s="37">
         <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="AQ43" s="28"/>
-      <c r="AR43" s="28"/>
-      <c r="AS43" s="28">
+        <v>8</v>
+      </c>
+      <c r="AQ43" s="37"/>
+      <c r="AR43" s="37"/>
+      <c r="AS43" s="37">
         <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="AT43" s="28"/>
-      <c r="AU43" s="28"/>
-      <c r="AV43" s="28">
+        <v>8</v>
+      </c>
+      <c r="AT43" s="37"/>
+      <c r="AU43" s="37"/>
+      <c r="AV43" s="37">
         <f t="shared" si="30"/>
-        <v>2</v>
-      </c>
-      <c r="AW43" s="28"/>
-      <c r="AX43" s="28"/>
-      <c r="AY43" s="28">
+        <v>8</v>
+      </c>
+      <c r="AW43" s="37"/>
+      <c r="AX43" s="37"/>
+      <c r="AY43" s="37">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AZ43" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BA43" s="33">
-        <f t="shared" si="37"/>
-        <v>2</v>
+        <f>G43-AZ43</f>
+        <v>8</v>
       </c>
       <c r="BB43" s="2"/>
     </row>
-    <row r="44" spans="2:54" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B44" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="28"/>
-      <c r="AE44" s="28"/>
-      <c r="AF44" s="28"/>
-      <c r="AG44" s="28"/>
-      <c r="AH44" s="28"/>
-      <c r="AI44" s="28"/>
-      <c r="AJ44" s="28"/>
-      <c r="AK44" s="28"/>
-      <c r="AL44" s="28"/>
-      <c r="AM44" s="28"/>
-      <c r="AN44" s="28"/>
-      <c r="AO44" s="28"/>
-      <c r="AP44" s="28"/>
-      <c r="AQ44" s="28"/>
-      <c r="AR44" s="28"/>
-      <c r="AS44" s="28"/>
-      <c r="AT44" s="28"/>
-      <c r="AU44" s="28"/>
-      <c r="AV44" s="28"/>
-      <c r="AW44" s="28"/>
-      <c r="AX44" s="28"/>
-      <c r="AY44" s="28"/>
-      <c r="AZ44" s="33"/>
-      <c r="BA44" s="33"/>
-      <c r="BB44" s="2"/>
-    </row>
-    <row r="45" spans="2:54" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="31"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" s="32">
-        <v>3</v>
-      </c>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28">
+    <row r="44" spans="2:54" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="40"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44" s="41">
+        <v>4</v>
+      </c>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37">
         <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28">
+        <v>4</v>
+      </c>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37">
         <f t="shared" si="18"/>
-        <v>3</v>
-      </c>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28">
+        <v>4</v>
+      </c>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37">
         <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28">
+        <v>4</v>
+      </c>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37">
         <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="28">
-        <f t="shared" si="38"/>
-        <v>3</v>
-      </c>
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="28">
-        <f t="shared" si="39"/>
-        <v>3</v>
-      </c>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="28"/>
-      <c r="AA45" s="28">
+        <v>4</v>
+      </c>
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37">
+        <f t="shared" si="35"/>
+        <v>4</v>
+      </c>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="37">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="37">
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
-      <c r="AB45" s="28"/>
-      <c r="AC45" s="28"/>
-      <c r="AD45" s="28">
+      <c r="AB44" s="37"/>
+      <c r="AC44" s="37"/>
+      <c r="AD44" s="37">
         <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="AE45" s="28"/>
-      <c r="AF45" s="28"/>
-      <c r="AG45" s="28">
+      <c r="AE44" s="37"/>
+      <c r="AF44" s="37"/>
+      <c r="AG44" s="37">
         <f t="shared" si="25"/>
         <v>3</v>
       </c>
-      <c r="AH45" s="28"/>
-      <c r="AI45" s="28"/>
-      <c r="AJ45" s="28">
+      <c r="AH44" s="37"/>
+      <c r="AI44" s="37"/>
+      <c r="AJ44" s="37">
         <f t="shared" si="26"/>
         <v>3</v>
       </c>
-      <c r="AK45" s="28"/>
-      <c r="AL45" s="28"/>
-      <c r="AM45" s="28">
+      <c r="AK44" s="37"/>
+      <c r="AL44" s="37"/>
+      <c r="AM44" s="37">
         <f t="shared" si="27"/>
         <v>3</v>
       </c>
-      <c r="AN45" s="28"/>
-      <c r="AO45" s="28"/>
-      <c r="AP45" s="28">
+      <c r="AN44" s="37"/>
+      <c r="AO44" s="37"/>
+      <c r="AP44" s="37">
         <f t="shared" si="28"/>
         <v>3</v>
       </c>
-      <c r="AQ45" s="28"/>
-      <c r="AR45" s="28"/>
-      <c r="AS45" s="28">
+      <c r="AQ44" s="37"/>
+      <c r="AR44" s="37"/>
+      <c r="AS44" s="37">
         <f t="shared" si="29"/>
         <v>3</v>
       </c>
-      <c r="AT45" s="28"/>
-      <c r="AU45" s="28"/>
-      <c r="AV45" s="28">
+      <c r="AT44" s="37"/>
+      <c r="AU44" s="37"/>
+      <c r="AV44" s="37">
         <f t="shared" si="30"/>
         <v>3</v>
       </c>
-      <c r="AW45" s="28"/>
-      <c r="AX45" s="28"/>
-      <c r="AY45" s="28">
+      <c r="AW44" s="37"/>
+      <c r="AX44" s="37"/>
+      <c r="AY44" s="37">
         <f t="shared" si="31"/>
         <v>3</v>
       </c>
-      <c r="AZ45" s="33">
+      <c r="AZ44" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="BA45" s="33">
-        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="BA44" s="33">
+        <f>G44-AZ44</f>
         <v>3</v>
       </c>
+      <c r="BB44" s="2"/>
+    </row>
+    <row r="45" spans="2:54" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="37"/>
+      <c r="AA45" s="37"/>
+      <c r="AB45" s="37"/>
+      <c r="AC45" s="37"/>
+      <c r="AD45" s="37"/>
+      <c r="AE45" s="37"/>
+      <c r="AF45" s="37"/>
+      <c r="AG45" s="37"/>
+      <c r="AH45" s="37"/>
+      <c r="AI45" s="37"/>
+      <c r="AJ45" s="37"/>
+      <c r="AK45" s="37"/>
+      <c r="AL45" s="37"/>
+      <c r="AM45" s="37"/>
+      <c r="AN45" s="37"/>
+      <c r="AO45" s="37"/>
+      <c r="AP45" s="37"/>
+      <c r="AQ45" s="37"/>
+      <c r="AR45" s="37"/>
+      <c r="AS45" s="37"/>
+      <c r="AT45" s="37"/>
+      <c r="AU45" s="37"/>
+      <c r="AV45" s="37"/>
+      <c r="AW45" s="37"/>
+      <c r="AX45" s="37"/>
+      <c r="AY45" s="37"/>
+      <c r="AZ45" s="33"/>
+      <c r="BA45" s="33"/>
       <c r="BB45" s="2"/>
     </row>
     <row r="46" spans="2:54" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="31"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46" s="32">
-        <v>2</v>
-      </c>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28">
+      <c r="B46" s="40"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="41">
+        <v>5</v>
+      </c>
+      <c r="H46" s="37">
+        <v>3</v>
+      </c>
+      <c r="I46" s="37">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28">
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28">
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37">
         <f t="shared" si="19"/>
         <v>2</v>
       </c>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28">
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37">
         <f t="shared" si="20"/>
         <v>2</v>
       </c>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="28">
-        <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="28">
-        <f t="shared" si="39"/>
-        <v>2</v>
-      </c>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28"/>
-      <c r="AA46" s="28">
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="37"/>
+      <c r="AA46" s="37">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
-      <c r="AB46" s="28"/>
-      <c r="AC46" s="28"/>
-      <c r="AD46" s="28">
+      <c r="AB46" s="37"/>
+      <c r="AC46" s="37"/>
+      <c r="AD46" s="37">
         <f t="shared" si="24"/>
         <v>2</v>
       </c>
-      <c r="AE46" s="28"/>
-      <c r="AF46" s="28"/>
-      <c r="AG46" s="28">
+      <c r="AE46" s="37"/>
+      <c r="AF46" s="37"/>
+      <c r="AG46" s="37">
         <f t="shared" si="25"/>
         <v>2</v>
       </c>
-      <c r="AH46" s="28"/>
-      <c r="AI46" s="28"/>
-      <c r="AJ46" s="28">
+      <c r="AH46" s="37"/>
+      <c r="AI46" s="37"/>
+      <c r="AJ46" s="37">
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
-      <c r="AK46" s="28"/>
-      <c r="AL46" s="28"/>
-      <c r="AM46" s="28">
+      <c r="AK46" s="37"/>
+      <c r="AL46" s="37"/>
+      <c r="AM46" s="37">
         <f t="shared" si="27"/>
         <v>2</v>
       </c>
-      <c r="AN46" s="28"/>
-      <c r="AO46" s="28"/>
-      <c r="AP46" s="28">
+      <c r="AN46" s="37"/>
+      <c r="AO46" s="37"/>
+      <c r="AP46" s="37">
         <f t="shared" si="28"/>
         <v>2</v>
       </c>
-      <c r="AQ46" s="28"/>
-      <c r="AR46" s="28"/>
-      <c r="AS46" s="28">
+      <c r="AQ46" s="37"/>
+      <c r="AR46" s="37"/>
+      <c r="AS46" s="37">
         <f t="shared" si="29"/>
         <v>2</v>
       </c>
-      <c r="AT46" s="28"/>
-      <c r="AU46" s="28"/>
-      <c r="AV46" s="28">
+      <c r="AT46" s="37"/>
+      <c r="AU46" s="37"/>
+      <c r="AV46" s="37">
         <f t="shared" si="30"/>
         <v>2</v>
       </c>
-      <c r="AW46" s="28"/>
-      <c r="AX46" s="28"/>
-      <c r="AY46" s="28">
+      <c r="AW46" s="37"/>
+      <c r="AX46" s="37"/>
+      <c r="AY46" s="37">
         <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AZ46" s="33">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA46" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="BA46:BA50" si="40">G46-AZ46</f>
         <v>2</v>
       </c>
       <c r="BB46" s="2"/>
     </row>
     <row r="47" spans="2:54" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" s="41">
+        <v>1</v>
+      </c>
+      <c r="H47" s="37">
+        <v>1</v>
+      </c>
+      <c r="I47" s="37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="J47" s="37"/>
       <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
+      <c r="L47" s="37">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="M47" s="37"/>
       <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
+      <c r="O47" s="37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
       <c r="P47" s="37"/>
       <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
+      <c r="R47" s="37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="S47" s="37"/>
       <c r="T47" s="37"/>
-      <c r="U47" s="37"/>
+      <c r="U47" s="37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
       <c r="V47" s="37"/>
       <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
+      <c r="X47" s="37">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
       <c r="Y47" s="37"/>
       <c r="Z47" s="37"/>
-      <c r="AA47" s="37"/>
+      <c r="AA47" s="37">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
       <c r="AB47" s="37"/>
       <c r="AC47" s="37"/>
-      <c r="AD47" s="37"/>
+      <c r="AD47" s="37">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="AE47" s="37"/>
       <c r="AF47" s="37"/>
-      <c r="AG47" s="37"/>
+      <c r="AG47" s="37">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="AH47" s="37"/>
       <c r="AI47" s="37"/>
-      <c r="AJ47" s="37"/>
+      <c r="AJ47" s="37">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="AK47" s="37"/>
       <c r="AL47" s="37"/>
-      <c r="AM47" s="37"/>
+      <c r="AM47" s="37">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
       <c r="AN47" s="37"/>
       <c r="AO47" s="37"/>
-      <c r="AP47" s="37"/>
+      <c r="AP47" s="37">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
       <c r="AQ47" s="37"/>
       <c r="AR47" s="37"/>
-      <c r="AS47" s="37"/>
+      <c r="AS47" s="37">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
       <c r="AT47" s="37"/>
       <c r="AU47" s="37"/>
-      <c r="AV47" s="37"/>
+      <c r="AV47" s="37">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
       <c r="AW47" s="37"/>
       <c r="AX47" s="37"/>
-      <c r="AY47" s="37"/>
-      <c r="AZ47" s="33"/>
-      <c r="BA47" s="33"/>
+      <c r="AY47" s="37">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AZ47" s="33">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="BA47" s="33">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
       <c r="BB47" s="2"/>
     </row>
     <row r="48" spans="2:54" s="39" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="34"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G48" s="41">
-        <v>1</v>
-      </c>
+      <c r="B48" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="41"/>
       <c r="H48" s="37"/>
-      <c r="I48" s="37">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
+      <c r="I48" s="37"/>
       <c r="J48" s="37"/>
       <c r="K48" s="37"/>
-      <c r="L48" s="37">
-        <f>I48-K48</f>
-        <v>1</v>
-      </c>
+      <c r="L48" s="37"/>
       <c r="M48" s="37"/>
       <c r="N48" s="37"/>
-      <c r="O48" s="37">
-        <f>L48-N48</f>
-        <v>1</v>
-      </c>
+      <c r="O48" s="37"/>
       <c r="P48" s="37"/>
-      <c r="Q48" s="37">
-        <v>1</v>
-      </c>
-      <c r="R48" s="37">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
       <c r="S48" s="37"/>
       <c r="T48" s="37"/>
-      <c r="U48" s="37">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
+      <c r="U48" s="37"/>
       <c r="V48" s="37"/>
       <c r="W48" s="37"/>
-      <c r="X48" s="37">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
+      <c r="X48" s="37"/>
       <c r="Y48" s="37"/>
       <c r="Z48" s="37"/>
-      <c r="AA48" s="37">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
+      <c r="AA48" s="37"/>
       <c r="AB48" s="37"/>
       <c r="AC48" s="37"/>
-      <c r="AD48" s="37">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+      <c r="AD48" s="37"/>
       <c r="AE48" s="37"/>
       <c r="AF48" s="37"/>
-      <c r="AG48" s="37">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
+      <c r="AG48" s="37"/>
       <c r="AH48" s="37"/>
       <c r="AI48" s="37"/>
-      <c r="AJ48" s="37">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
+      <c r="AJ48" s="37"/>
       <c r="AK48" s="37"/>
       <c r="AL48" s="37"/>
-      <c r="AM48" s="37">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
+      <c r="AM48" s="37"/>
       <c r="AN48" s="37"/>
       <c r="AO48" s="37"/>
-      <c r="AP48" s="37">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
+      <c r="AP48" s="37"/>
       <c r="AQ48" s="37"/>
       <c r="AR48" s="37"/>
-      <c r="AS48" s="37">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
+      <c r="AS48" s="37"/>
       <c r="AT48" s="37"/>
       <c r="AU48" s="37"/>
-      <c r="AV48" s="37">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
+      <c r="AV48" s="37"/>
       <c r="AW48" s="37"/>
       <c r="AX48" s="37"/>
-      <c r="AY48" s="37">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AZ48" s="33">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="BA48" s="33">
-        <f>G48-AZ48</f>
-        <v>0</v>
-      </c>
+      <c r="AY48" s="37"/>
+      <c r="AZ48" s="33"/>
+      <c r="BA48" s="33"/>
       <c r="BB48" s="2"/>
     </row>
     <row r="49" spans="2:54" s="39" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="40"/>
       <c r="C49" s="35"/>
       <c r="D49" s="34" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E49" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="40" t="s">
-        <v>76</v>
+      <c r="F49" s="37" t="s">
+        <v>71</v>
       </c>
       <c r="G49" s="41">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H49" s="37"/>
       <c r="I49" s="37">
         <f t="shared" si="17"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J49" s="37"/>
       <c r="K49" s="37"/>
       <c r="L49" s="37">
-        <f>I49-K49</f>
-        <v>15</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
+      <c r="N49" s="37">
+        <v>1</v>
+      </c>
       <c r="O49" s="37">
-        <f>L49-N49</f>
-        <v>15</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="P49" s="37"/>
-      <c r="Q49" s="37">
-        <v>3</v>
-      </c>
+      <c r="Q49" s="37"/>
       <c r="R49" s="37">
         <f t="shared" si="20"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="S49" s="37"/>
-      <c r="T49" s="37">
-        <v>2</v>
-      </c>
+      <c r="T49" s="37"/>
       <c r="U49" s="37">
         <f t="shared" si="34"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V49" s="37"/>
-      <c r="W49" s="37">
-        <v>2</v>
-      </c>
+      <c r="W49" s="37"/>
       <c r="X49" s="37">
         <f t="shared" si="35"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Y49" s="37"/>
       <c r="Z49" s="37"/>
       <c r="AA49" s="37">
         <f t="shared" si="23"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AB49" s="37"/>
       <c r="AC49" s="37"/>
       <c r="AD49" s="37">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE49" s="37"/>
       <c r="AF49" s="37"/>
       <c r="AG49" s="37">
         <f t="shared" si="25"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AH49" s="37"/>
       <c r="AI49" s="37"/>
       <c r="AJ49" s="37">
         <f t="shared" si="26"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AK49" s="37"/>
       <c r="AL49" s="37"/>
       <c r="AM49" s="37">
         <f t="shared" si="27"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AN49" s="37"/>
       <c r="AO49" s="37"/>
       <c r="AP49" s="37">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AQ49" s="37"/>
       <c r="AR49" s="37"/>
       <c r="AS49" s="37">
         <f t="shared" si="29"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AT49" s="37"/>
       <c r="AU49" s="37"/>
       <c r="AV49" s="37">
         <f t="shared" si="30"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AW49" s="37"/>
       <c r="AX49" s="37"/>
       <c r="AY49" s="37">
         <f t="shared" si="31"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AZ49" s="33">
         <f t="shared" si="32"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BA49" s="33">
-        <f>G49-AZ49</f>
-        <v>8</v>
+        <f t="shared" si="40"/>
+        <v>1</v>
       </c>
       <c r="BB49" s="2"/>
     </row>
@@ -5696,756 +5687,456 @@
       <c r="B50" s="40"/>
       <c r="C50" s="35"/>
       <c r="D50" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E50" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F50" s="40" t="s">
-        <v>76</v>
+      <c r="F50" s="37" t="s">
+        <v>71</v>
       </c>
       <c r="G50" s="41">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H50" s="37"/>
       <c r="I50" s="37">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J50" s="37"/>
       <c r="K50" s="37"/>
       <c r="L50" s="37">
         <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37">
         <v>4</v>
       </c>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
       <c r="O50" s="37">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P50" s="37"/>
       <c r="Q50" s="37"/>
       <c r="R50" s="37">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S50" s="37"/>
       <c r="T50" s="37"/>
       <c r="U50" s="37">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V50" s="37"/>
       <c r="W50" s="37"/>
       <c r="X50" s="37">
         <f t="shared" si="35"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y50" s="37"/>
-      <c r="Z50" s="37">
-        <v>1</v>
-      </c>
+      <c r="Z50" s="37"/>
       <c r="AA50" s="37">
         <f t="shared" si="23"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB50" s="37"/>
       <c r="AC50" s="37"/>
       <c r="AD50" s="37">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE50" s="37"/>
       <c r="AF50" s="37"/>
       <c r="AG50" s="37">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AH50" s="37"/>
       <c r="AI50" s="37"/>
       <c r="AJ50" s="37">
         <f t="shared" si="26"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK50" s="37"/>
       <c r="AL50" s="37"/>
       <c r="AM50" s="37">
         <f t="shared" si="27"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AN50" s="37"/>
       <c r="AO50" s="37"/>
       <c r="AP50" s="37">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AQ50" s="37"/>
       <c r="AR50" s="37"/>
       <c r="AS50" s="37">
         <f t="shared" si="29"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AT50" s="37"/>
       <c r="AU50" s="37"/>
       <c r="AV50" s="37">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW50" s="37"/>
       <c r="AX50" s="37"/>
       <c r="AY50" s="37">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AZ50" s="33">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BA50" s="33">
-        <f>G50-AZ50</f>
-        <v>3</v>
-      </c>
-      <c r="BB50" s="2"/>
-    </row>
-    <row r="51" spans="2:54" s="39" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="37"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="37"/>
-      <c r="U51" s="37"/>
-      <c r="V51" s="37"/>
-      <c r="W51" s="37"/>
-      <c r="X51" s="37"/>
-      <c r="Y51" s="37"/>
-      <c r="Z51" s="37"/>
-      <c r="AA51" s="37"/>
-      <c r="AB51" s="37"/>
-      <c r="AC51" s="37"/>
-      <c r="AD51" s="37"/>
-      <c r="AE51" s="37"/>
-      <c r="AF51" s="37"/>
-      <c r="AG51" s="37"/>
-      <c r="AH51" s="37"/>
-      <c r="AI51" s="37"/>
-      <c r="AJ51" s="37"/>
-      <c r="AK51" s="37"/>
-      <c r="AL51" s="37"/>
-      <c r="AM51" s="37"/>
-      <c r="AN51" s="37"/>
-      <c r="AO51" s="37"/>
-      <c r="AP51" s="37"/>
-      <c r="AQ51" s="37"/>
-      <c r="AR51" s="37"/>
-      <c r="AS51" s="37"/>
-      <c r="AT51" s="37"/>
-      <c r="AU51" s="37"/>
-      <c r="AV51" s="37"/>
-      <c r="AW51" s="37"/>
-      <c r="AX51" s="37"/>
-      <c r="AY51" s="37"/>
-      <c r="AZ51" s="33"/>
-      <c r="BA51" s="33"/>
-      <c r="BB51" s="2"/>
-    </row>
-    <row r="52" spans="2:54" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="40"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F52" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G52" s="41">
-        <v>5</v>
-      </c>
-      <c r="H52" s="37">
-        <v>3</v>
-      </c>
-      <c r="I52" s="37">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
-      <c r="U52" s="37">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="V52" s="37"/>
-      <c r="W52" s="37"/>
-      <c r="X52" s="37">
-        <f t="shared" si="35"/>
-        <v>2</v>
-      </c>
-      <c r="Y52" s="37"/>
-      <c r="Z52" s="37"/>
-      <c r="AA52" s="37">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="AB52" s="37"/>
-      <c r="AC52" s="37"/>
-      <c r="AD52" s="37">
-        <f t="shared" si="24"/>
-        <v>2</v>
-      </c>
-      <c r="AE52" s="37"/>
-      <c r="AF52" s="37"/>
-      <c r="AG52" s="37">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="AH52" s="37"/>
-      <c r="AI52" s="37"/>
-      <c r="AJ52" s="37">
-        <f t="shared" si="26"/>
-        <v>2</v>
-      </c>
-      <c r="AK52" s="37"/>
-      <c r="AL52" s="37"/>
-      <c r="AM52" s="37">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="AN52" s="37"/>
-      <c r="AO52" s="37"/>
-      <c r="AP52" s="37">
-        <f t="shared" si="28"/>
-        <v>2</v>
-      </c>
-      <c r="AQ52" s="37"/>
-      <c r="AR52" s="37"/>
-      <c r="AS52" s="37">
-        <f t="shared" si="29"/>
-        <v>2</v>
-      </c>
-      <c r="AT52" s="37"/>
-      <c r="AU52" s="37"/>
-      <c r="AV52" s="37">
-        <f t="shared" si="30"/>
-        <v>2</v>
-      </c>
-      <c r="AW52" s="37"/>
-      <c r="AX52" s="37"/>
-      <c r="AY52" s="37">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
-      <c r="AZ52" s="33">
-        <f t="shared" si="32"/>
-        <v>3</v>
-      </c>
-      <c r="BA52" s="33">
-        <f t="shared" ref="BA52:BA56" si="40">G52-AZ52</f>
-        <v>2</v>
-      </c>
-      <c r="BB52" s="2"/>
-    </row>
-    <row r="53" spans="2:54" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="40"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E53" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F53" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G53" s="41">
-        <v>1</v>
-      </c>
-      <c r="H53" s="37">
-        <v>1</v>
-      </c>
-      <c r="I53" s="37">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
-      <c r="U53" s="37">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="V53" s="37"/>
-      <c r="W53" s="37"/>
-      <c r="X53" s="37">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="Y53" s="37"/>
-      <c r="Z53" s="37"/>
-      <c r="AA53" s="37">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AB53" s="37"/>
-      <c r="AC53" s="37"/>
-      <c r="AD53" s="37">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AE53" s="37"/>
-      <c r="AF53" s="37"/>
-      <c r="AG53" s="37">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AH53" s="37"/>
-      <c r="AI53" s="37"/>
-      <c r="AJ53" s="37">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AK53" s="37"/>
-      <c r="AL53" s="37"/>
-      <c r="AM53" s="37">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AN53" s="37"/>
-      <c r="AO53" s="37"/>
-      <c r="AP53" s="37">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AQ53" s="37"/>
-      <c r="AR53" s="37"/>
-      <c r="AS53" s="37">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AT53" s="37"/>
-      <c r="AU53" s="37"/>
-      <c r="AV53" s="37">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AW53" s="37"/>
-      <c r="AX53" s="37"/>
-      <c r="AY53" s="37">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AZ53" s="33">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="BA53" s="33">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="BB53" s="2"/>
-    </row>
-    <row r="54" spans="2:54" s="39" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="37"/>
-      <c r="W54" s="37"/>
-      <c r="X54" s="37"/>
-      <c r="Y54" s="37"/>
-      <c r="Z54" s="37"/>
-      <c r="AA54" s="37"/>
-      <c r="AB54" s="37"/>
-      <c r="AC54" s="37"/>
-      <c r="AD54" s="37"/>
-      <c r="AE54" s="37"/>
-      <c r="AF54" s="37"/>
-      <c r="AG54" s="37"/>
-      <c r="AH54" s="37"/>
-      <c r="AI54" s="37"/>
-      <c r="AJ54" s="37"/>
-      <c r="AK54" s="37"/>
-      <c r="AL54" s="37"/>
-      <c r="AM54" s="37"/>
-      <c r="AN54" s="37"/>
-      <c r="AO54" s="37"/>
-      <c r="AP54" s="37"/>
-      <c r="AQ54" s="37"/>
-      <c r="AR54" s="37"/>
-      <c r="AS54" s="37"/>
-      <c r="AT54" s="37"/>
-      <c r="AU54" s="37"/>
-      <c r="AV54" s="37"/>
-      <c r="AW54" s="37"/>
-      <c r="AX54" s="37"/>
-      <c r="AY54" s="37"/>
-      <c r="AZ54" s="33"/>
-      <c r="BA54" s="33"/>
-      <c r="BB54" s="2"/>
-    </row>
-    <row r="55" spans="2:54" s="39" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="40"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="E55" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F55" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G55" s="41">
-        <v>2</v>
-      </c>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37">
-        <v>1</v>
-      </c>
-      <c r="O55" s="37">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
-      <c r="U55" s="37">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="V55" s="37"/>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="Y55" s="37"/>
-      <c r="Z55" s="37"/>
-      <c r="AA55" s="37">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AB55" s="37"/>
-      <c r="AC55" s="37"/>
-      <c r="AD55" s="37">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="AE55" s="37"/>
-      <c r="AF55" s="37"/>
-      <c r="AG55" s="37">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="AH55" s="37"/>
-      <c r="AI55" s="37"/>
-      <c r="AJ55" s="37">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="AK55" s="37"/>
-      <c r="AL55" s="37"/>
-      <c r="AM55" s="37">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="AN55" s="37"/>
-      <c r="AO55" s="37"/>
-      <c r="AP55" s="37">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="AQ55" s="37"/>
-      <c r="AR55" s="37"/>
-      <c r="AS55" s="37">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="AT55" s="37"/>
-      <c r="AU55" s="37"/>
-      <c r="AV55" s="37">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="AW55" s="37"/>
-      <c r="AX55" s="37"/>
-      <c r="AY55" s="37">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="AZ55" s="33">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="BA55" s="33">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-      <c r="BB55" s="2"/>
-    </row>
-    <row r="56" spans="2:54" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="40"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E56" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G56" s="41">
-        <v>10</v>
-      </c>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37">
-        <f t="shared" si="17"/>
-        <v>10</v>
-      </c>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37">
-        <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37">
-        <v>4</v>
-      </c>
-      <c r="O56" s="37">
-        <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
-      <c r="U56" s="37">
-        <f t="shared" si="34"/>
-        <v>6</v>
-      </c>
-      <c r="V56" s="37"/>
-      <c r="W56" s="37"/>
-      <c r="X56" s="37">
-        <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="Y56" s="37"/>
-      <c r="Z56" s="37"/>
-      <c r="AA56" s="37">
-        <f t="shared" si="23"/>
-        <v>6</v>
-      </c>
-      <c r="AB56" s="37"/>
-      <c r="AC56" s="37"/>
-      <c r="AD56" s="37">
-        <f t="shared" si="24"/>
-        <v>6</v>
-      </c>
-      <c r="AE56" s="37"/>
-      <c r="AF56" s="37"/>
-      <c r="AG56" s="37">
-        <f t="shared" si="25"/>
-        <v>6</v>
-      </c>
-      <c r="AH56" s="37"/>
-      <c r="AI56" s="37"/>
-      <c r="AJ56" s="37">
-        <f t="shared" si="26"/>
-        <v>6</v>
-      </c>
-      <c r="AK56" s="37"/>
-      <c r="AL56" s="37"/>
-      <c r="AM56" s="37">
-        <f t="shared" si="27"/>
-        <v>6</v>
-      </c>
-      <c r="AN56" s="37"/>
-      <c r="AO56" s="37"/>
-      <c r="AP56" s="37">
-        <f t="shared" si="28"/>
-        <v>6</v>
-      </c>
-      <c r="AQ56" s="37"/>
-      <c r="AR56" s="37"/>
-      <c r="AS56" s="37">
-        <f t="shared" si="29"/>
-        <v>6</v>
-      </c>
-      <c r="AT56" s="37"/>
-      <c r="AU56" s="37"/>
-      <c r="AV56" s="37">
-        <f t="shared" si="30"/>
-        <v>6</v>
-      </c>
-      <c r="AW56" s="37"/>
-      <c r="AX56" s="37"/>
-      <c r="AY56" s="37">
-        <f t="shared" si="31"/>
-        <v>6</v>
-      </c>
-      <c r="AZ56" s="33">
-        <f t="shared" si="32"/>
-        <v>4</v>
-      </c>
-      <c r="BA56" s="33">
         <f t="shared" si="40"/>
         <v>6</v>
       </c>
+      <c r="BB50" s="2"/>
+    </row>
+    <row r="51" spans="2:54" s="39" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="43"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="14"/>
+      <c r="Z51" s="13"/>
+      <c r="AA51" s="13"/>
+      <c r="AB51" s="14"/>
+      <c r="AC51" s="13"/>
+      <c r="AD51" s="13"/>
+      <c r="AE51" s="14"/>
+      <c r="AF51" s="13"/>
+      <c r="AG51" s="13"/>
+      <c r="AH51" s="14"/>
+      <c r="AI51" s="13"/>
+      <c r="AJ51" s="13"/>
+      <c r="AK51" s="14"/>
+      <c r="AL51" s="13"/>
+      <c r="AM51" s="13"/>
+      <c r="AN51" s="14"/>
+      <c r="AO51" s="13"/>
+      <c r="AP51" s="13"/>
+      <c r="AQ51" s="14"/>
+      <c r="AR51" s="13"/>
+      <c r="AS51" s="13"/>
+      <c r="AT51" s="14"/>
+      <c r="AU51" s="13"/>
+      <c r="AV51" s="13"/>
+      <c r="AW51" s="14"/>
+      <c r="AX51" s="13"/>
+      <c r="AY51" s="13"/>
+      <c r="AZ51" s="13"/>
+      <c r="BA51" s="13"/>
+      <c r="BB51" s="2"/>
+    </row>
+    <row r="52" spans="2:54" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="2"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="2"/>
+      <c r="AJ52" s="2"/>
+      <c r="AK52" s="2"/>
+      <c r="AL52" s="2"/>
+      <c r="AM52" s="2"/>
+      <c r="AN52" s="2"/>
+      <c r="AO52" s="2"/>
+      <c r="AP52" s="2"/>
+      <c r="AQ52" s="2"/>
+      <c r="AR52" s="2"/>
+      <c r="AS52" s="2"/>
+      <c r="AT52" s="2"/>
+      <c r="AU52" s="2"/>
+      <c r="AV52" s="2"/>
+      <c r="AW52" s="2"/>
+      <c r="AX52" s="2"/>
+      <c r="AY52" s="2"/>
+      <c r="AZ52" s="42"/>
+      <c r="BA52" s="42"/>
+      <c r="BB52" s="2"/>
+    </row>
+    <row r="53" spans="2:54" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="2"/>
+      <c r="AK53" s="2"/>
+      <c r="AL53" s="2"/>
+      <c r="AM53" s="2"/>
+      <c r="AN53" s="2"/>
+      <c r="AO53" s="2"/>
+      <c r="AP53" s="2"/>
+      <c r="AQ53" s="2"/>
+      <c r="AR53" s="2"/>
+      <c r="AS53" s="2"/>
+      <c r="AT53" s="2"/>
+      <c r="AU53" s="2"/>
+      <c r="AV53" s="2"/>
+      <c r="AW53" s="2"/>
+      <c r="AX53" s="2"/>
+      <c r="AY53" s="2"/>
+      <c r="AZ53" s="42"/>
+      <c r="BA53" s="42"/>
+      <c r="BB53" s="2"/>
+    </row>
+    <row r="54" spans="2:54" s="39" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="2"/>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="2"/>
+      <c r="AK54" s="2"/>
+      <c r="AL54" s="2"/>
+      <c r="AM54" s="2"/>
+      <c r="AN54" s="2"/>
+      <c r="AO54" s="2"/>
+      <c r="AP54" s="2"/>
+      <c r="AQ54" s="2"/>
+      <c r="AR54" s="2"/>
+      <c r="AS54" s="2"/>
+      <c r="AT54" s="2"/>
+      <c r="AU54" s="2"/>
+      <c r="AV54" s="2"/>
+      <c r="AW54" s="2"/>
+      <c r="AX54" s="2"/>
+      <c r="AY54" s="2"/>
+      <c r="AZ54" s="42"/>
+      <c r="BA54" s="42"/>
+      <c r="BB54" s="2"/>
+    </row>
+    <row r="55" spans="2:54" s="39" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="2"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="2"/>
+      <c r="AH55" s="2"/>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="2"/>
+      <c r="AK55" s="2"/>
+      <c r="AL55" s="2"/>
+      <c r="AM55" s="2"/>
+      <c r="AN55" s="2"/>
+      <c r="AO55" s="2"/>
+      <c r="AP55" s="2"/>
+      <c r="AQ55" s="2"/>
+      <c r="AR55" s="2"/>
+      <c r="AS55" s="2"/>
+      <c r="AT55" s="2"/>
+      <c r="AU55" s="2"/>
+      <c r="AV55" s="2"/>
+      <c r="AW55" s="2"/>
+      <c r="AX55" s="2"/>
+      <c r="AY55" s="2"/>
+      <c r="AZ55" s="42"/>
+      <c r="BA55" s="42"/>
+      <c r="BB55" s="2"/>
+    </row>
+    <row r="56" spans="2:54" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="2"/>
+      <c r="AH56" s="2"/>
+      <c r="AI56" s="2"/>
+      <c r="AJ56" s="2"/>
+      <c r="AK56" s="2"/>
+      <c r="AL56" s="2"/>
+      <c r="AM56" s="2"/>
+      <c r="AN56" s="2"/>
+      <c r="AO56" s="2"/>
+      <c r="AP56" s="2"/>
+      <c r="AQ56" s="2"/>
+      <c r="AR56" s="2"/>
+      <c r="AS56" s="2"/>
+      <c r="AT56" s="2"/>
+      <c r="AU56" s="2"/>
+      <c r="AV56" s="2"/>
+      <c r="AW56" s="2"/>
+      <c r="AX56" s="2"/>
+      <c r="AY56" s="2"/>
+      <c r="AZ56" s="42"/>
+      <c r="BA56" s="42"/>
       <c r="BB56" s="2"/>
     </row>
-    <row r="57" spans="2:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="43"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="14"/>
-      <c r="T57" s="13"/>
-      <c r="U57" s="13"/>
-      <c r="V57" s="14"/>
-      <c r="W57" s="13"/>
-      <c r="X57" s="13"/>
-      <c r="Y57" s="14"/>
-      <c r="Z57" s="13"/>
-      <c r="AA57" s="13"/>
-      <c r="AB57" s="14"/>
-      <c r="AC57" s="13"/>
-      <c r="AD57" s="13"/>
-      <c r="AE57" s="14"/>
-      <c r="AF57" s="13"/>
-      <c r="AG57" s="13"/>
-      <c r="AH57" s="14"/>
-      <c r="AI57" s="13"/>
-      <c r="AJ57" s="13"/>
-      <c r="AK57" s="14"/>
-      <c r="AL57" s="13"/>
-      <c r="AM57" s="13"/>
-      <c r="AN57" s="14"/>
-      <c r="AO57" s="13"/>
-      <c r="AP57" s="13"/>
-      <c r="AQ57" s="14"/>
-      <c r="AR57" s="13"/>
-      <c r="AS57" s="13"/>
-      <c r="AT57" s="14"/>
-      <c r="AU57" s="13"/>
-      <c r="AV57" s="13"/>
-      <c r="AW57" s="14"/>
-      <c r="AX57" s="13"/>
-      <c r="AY57" s="13"/>
-      <c r="AZ57" s="13"/>
-      <c r="BA57" s="13"/>
-    </row>
+    <row r="57" spans="2:54" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
     <mergeCell ref="AL4:AM4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
@@ -6457,11 +6148,6 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="50" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
